--- a/data/hotels_by_city/Denver/Denver_shard_265.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_265.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="314">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33412-d119982-Reviews-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
   </si>
   <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-The-Commons-Hotel-Suites-Denver-Tech-Center.h49768.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,832 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r310757174-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>33412</t>
+  </si>
+  <si>
+    <t>119982</t>
+  </si>
+  <si>
+    <t>310757174</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Mixed bag</t>
+  </si>
+  <si>
+    <t>I was so excited to get to Denver, that I was willing to overlook some things.. However, we were booked on the 3rd floor.  There is no elevator and we had a ton of stuff.  Also, we sat on the bed to check it out and the bed springs were broken.  The hotel staff and manager did arrange for us to stay in an upgraded suite, which we really appreciated and it was on the first floor!  The parking spaces are very tight, we had a Silverado and we had to use two spots, which was difficult to find.  The walls in the unit are very thin, you can easily hear the goings on above you and beside you.  The continental breakfast was very good and the location was good.  I would look for somewhere else to stay the next time I travel to Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I was so excited to get to Denver, that I was willing to overlook some things.. However, we were booked on the 3rd floor.  There is no elevator and we had a ton of stuff.  Also, we sat on the bed to check it out and the bed springs were broken.  The hotel staff and manager did arrange for us to stay in an upgraded suite, which we really appreciated and it was on the first floor!  The parking spaces are very tight, we had a Silverado and we had to use two spots, which was difficult to find.  The walls in the unit are very thin, you can easily hear the goings on above you and beside you.  The continental breakfast was very good and the location was good.  I would look for somewhere else to stay the next time I travel to Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r306492081-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>306492081</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>Overall, a very enjoyable stay</t>
+  </si>
+  <si>
+    <t>I wanted to give this hotel 5 stars, but one thing prevented me from doing that.... It has no hotel shuttle from the airport. Every major hotel in major cities I visit help their guests get to their location. I was disappointed that a high end hotel such as the Hyatt did not. The hotel itself is relatively new, modern and well maintained. I had a nice room, but I did not like having to pay to upgrade the internet. At these prices, it should be included. The bed was very comfortable, the bathroom large and well-maintained and I had a nice view of Eastern Denver. Room service was friendly and tasty. They have a really nice gym and pool and I enjoyed a workout before my event. Overall, a really enjoyable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I wanted to give this hotel 5 stars, but one thing prevented me from doing that.... It has no hotel shuttle from the airport. Every major hotel in major cities I visit help their guests get to their location. I was disappointed that a high end hotel such as the Hyatt did not. The hotel itself is relatively new, modern and well maintained. I had a nice room, but I did not like having to pay to upgrade the internet. At these prices, it should be included. The bed was very comfortable, the bathroom large and well-maintained and I had a nice view of Eastern Denver. Room service was friendly and tasty. They have a really nice gym and pool and I enjoyed a workout before my event. Overall, a really enjoyable stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r294846921-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>294846921</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>Great Beds!!</t>
+  </si>
+  <si>
+    <t>I had to come into town for business and was placed in this hotel. I slept so well, which I never do at hotels. The breakfast was great (for continental). You can make pancakes, fresh fruit, sausage, good eggs, oatmeal, 3-4 juice choices. During breakfast, a few of us raved about the mattresses and had to ask for the make. The front office staff and manager are very accommodating. I cannot recall her name...Diane? Very quiet. The downside, no elevators. I needed one and should have requested the first floor. Nothing too fancy , though very comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r281596564-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>281596564</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t>A good place with so-so wifi</t>
+  </si>
+  <si>
+    <t>Really liked the place. Good intersection of quality and price.  But the Wifi was week to non-functional.  The friendly staff said they'd check on, send some one, but it never got fixed.  Finally one admitted that the building we were in (2nd to last building on north side) "had problems" w/ wifi.  It was a weekend but it felt like just a stall.  Planning to stay there next week for a week but if the wifi isn't working right off I'll have to move on.  Can't do what I need to do without the internet.  Wish me luck...</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r279593963-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>279593963</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>Great spot in DTC!</t>
+  </si>
+  <si>
+    <t>I have stayed at the Commons Hotel on several occasions, both for business and pleasure. On every occasion, I was greeted by Lina at the front desk. She always goes out of her way to ensure my stay is as pleasant as possible. The Commons location is walking distance to restaurants, stores, and business offices in DTC.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r277081258-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>277081258</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>Really a residential place not a hotel</t>
+  </si>
+  <si>
+    <t>First let me say that the bed was excellent.  The closet was great, seemed like something you would want to stay in to live for a while. Now let me tell you, it did not give us what a motel/hotel would have given us.1) No service on the weekend 2) No extra toilet paper, towels or tissues in the roomstayed 4 days, came late Thursday, left Monday AM with ssame towel, sheet, etc.3) For a cold area, the blanket was a little thin4) Missed breakfast since we left early for graduation exercizes both Fri and Sat and no breakfast on Sun! When I asked to get something at all, it was no use- it was all packed up and nothing available.5) Monday AM breakfast- below average egg, toast, packaged pastryIt is very far from anywhere but if you like the train, you can walk 5 blocks and get that into downtown Denver.6) Parking was difficult if you come back late.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>First let me say that the bed was excellent.  The closet was great, seemed like something you would want to stay in to live for a while. Now let me tell you, it did not give us what a motel/hotel would have given us.1) No service on the weekend 2) No extra toilet paper, towels or tissues in the roomstayed 4 days, came late Thursday, left Monday AM with ssame towel, sheet, etc.3) For a cold area, the blanket was a little thin4) Missed breakfast since we left early for graduation exercizes both Fri and Sat and no breakfast on Sun! When I asked to get something at all, it was no use- it was all packed up and nothing available.5) Monday AM breakfast- below average egg, toast, packaged pastryIt is very far from anywhere but if you like the train, you can walk 5 blocks and get that into downtown Denver.6) Parking was difficult if you come back late.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r272531119-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>272531119</t>
+  </si>
+  <si>
+    <t>05/17/2015</t>
+  </si>
+  <si>
+    <t>Not so much</t>
+  </si>
+  <si>
+    <t>The rooms are converted apartments with no room to move around. If you open the dresser drawer you cannot walk past the end of the bed. The walls are paper thin so much so you can hear the guy in the next room pass gas. We went down to breakfast on the last day and were locked out of our room. Had to get the keys reactivated.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r267910506-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>267910506</t>
+  </si>
+  <si>
+    <t>04/25/2015</t>
+  </si>
+  <si>
+    <t>Great Place to stay during a Hectic First Time Move to Denver and New Week at Work</t>
+  </si>
+  <si>
+    <t>Jackie, Lena, and everyone were very friendly and made our stay quite comfortable and inviting. We really appreciated it as there was so much going on with the movers, leasing a new place, and starting my new job at Pearson that first week.My wife got lost on the way down as her car didn't have GPS. Jackie helped with communications and directions, then helped us de-frazzle later.Accommodations are very nice, the quality of 4-star hotels I have stayed in. Breakfasts are great: We moved from La Quinta in Lakewood to get a real breakfast with eggs.We'd definitely recommend for new arrivals to the area or for visitors who want an upscale room with kitchen facilities.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jackie, Lena, and everyone were very friendly and made our stay quite comfortable and inviting. We really appreciated it as there was so much going on with the movers, leasing a new place, and starting my new job at Pearson that first week.My wife got lost on the way down as her car didn't have GPS. Jackie helped with communications and directions, then helped us de-frazzle later.Accommodations are very nice, the quality of 4-star hotels I have stayed in. Breakfasts are great: We moved from La Quinta in Lakewood to get a real breakfast with eggs.We'd definitely recommend for new arrivals to the area or for visitors who want an upscale room with kitchen facilities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r265935810-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>265935810</t>
+  </si>
+  <si>
+    <t>04/15/2015</t>
+  </si>
+  <si>
+    <t>Great value!</t>
+  </si>
+  <si>
+    <t>This is a converted apartment building, but the rooms are just as good as pricier hotels. Very clean and comfortable with a nice bed and tv. Quiet place to stay, and near plenty of shopping and food. Dana, the front desk lady was extremely friendly and helpful!! I'd definitely recommend this place and would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r260725116-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>260725116</t>
+  </si>
+  <si>
+    <t>03/20/2015</t>
+  </si>
+  <si>
+    <t>Increasingly Disappointed</t>
+  </si>
+  <si>
+    <t>My wife and I started staying at The Commos when it was called The Boston Commons. We thought we had found a jewel and extolled the virtues to all our friends. At some point it changed to The Commons.  I believe there was a change of mangement at which point the quality began to decline.  We're always told we're being put in a newly renovated room, but over the last few visits there have been chips it the bathtubs and black grout in the tile and dim lighting throughout.  The pots and pans in the kitchen are never clean any more; they always have to be throughly cleaned to remove crusted on food before we can use them.  
+At Christmas the television quit working and we had to switch rooms.  In the new room the television in the bedroom was not programmed and couldn't be used.  The other had the close captioning on that we couldn't turn off. Then the pilot light went out on the gas fireplace. I called the front desk and she came up with a butane lighter and said the maintenance man was on the other side of town and couldn't come back, but I was welcome to try and light it myself.  The most distrubing thing about that stay was when my wife, while putting her clothes away, opened the dresser drawer and found a plastic bag with ointments and toys from an adult store....My wife and I started staying at The Commos when it was called The Boston Commons. We thought we had found a jewel and extolled the virtues to all our friends. At some point it changed to The Commons.  I believe there was a change of mangement at which point the quality began to decline.  We're always told we're being put in a newly renovated room, but over the last few visits there have been chips it the bathtubs and black grout in the tile and dim lighting throughout.  The pots and pans in the kitchen are never clean any more; they always have to be throughly cleaned to remove crusted on food before we can use them.  At Christmas the television quit working and we had to switch rooms.  In the new room the television in the bedroom was not programmed and couldn't be used.  The other had the close captioning on that we couldn't turn off. Then the pilot light went out on the gas fireplace. I called the front desk and she came up with a butane lighter and said the maintenance man was on the other side of town and couldn't come back, but I was welcome to try and light it myself.  The most distrubing thing about that stay was when my wife, while putting her clothes away, opened the dresser drawer and found a plastic bag with ointments and toys from an adult store.  Obviously house keeping did not thoroughly clean the room.We stayed again this time in March.  I hoped the previous visit was just an anomaly. When we returned to the room,however on the second day, the door to the room was not shut.  Another morning I had to get some work done so I hung the "Do Not Disturb" sign on the door.  At noon when, I left, I called the front desk and told them I was leaving and asked that they clean the room.  When I returned at 6 pm nothing had been touched.  The maintenance and housekeeping staff evidently just don't care. For each of these visits we were given a discount on our bill, but I would have much preferred a clean, well lit, well maintained room.  Unfortunately we will not be returning to The Commons nor can we recommend that anyone else stay there.  It's sad when good things go bad from neglect.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>My wife and I started staying at The Commos when it was called The Boston Commons. We thought we had found a jewel and extolled the virtues to all our friends. At some point it changed to The Commons.  I believe there was a change of mangement at which point the quality began to decline.  We're always told we're being put in a newly renovated room, but over the last few visits there have been chips it the bathtubs and black grout in the tile and dim lighting throughout.  The pots and pans in the kitchen are never clean any more; they always have to be throughly cleaned to remove crusted on food before we can use them.  
+At Christmas the television quit working and we had to switch rooms.  In the new room the television in the bedroom was not programmed and couldn't be used.  The other had the close captioning on that we couldn't turn off. Then the pilot light went out on the gas fireplace. I called the front desk and she came up with a butane lighter and said the maintenance man was on the other side of town and couldn't come back, but I was welcome to try and light it myself.  The most distrubing thing about that stay was when my wife, while putting her clothes away, opened the dresser drawer and found a plastic bag with ointments and toys from an adult store....My wife and I started staying at The Commos when it was called The Boston Commons. We thought we had found a jewel and extolled the virtues to all our friends. At some point it changed to The Commons.  I believe there was a change of mangement at which point the quality began to decline.  We're always told we're being put in a newly renovated room, but over the last few visits there have been chips it the bathtubs and black grout in the tile and dim lighting throughout.  The pots and pans in the kitchen are never clean any more; they always have to be throughly cleaned to remove crusted on food before we can use them.  At Christmas the television quit working and we had to switch rooms.  In the new room the television in the bedroom was not programmed and couldn't be used.  The other had the close captioning on that we couldn't turn off. Then the pilot light went out on the gas fireplace. I called the front desk and she came up with a butane lighter and said the maintenance man was on the other side of town and couldn't come back, but I was welcome to try and light it myself.  The most distrubing thing about that stay was when my wife, while putting her clothes away, opened the dresser drawer and found a plastic bag with ointments and toys from an adult store.  Obviously house keeping did not thoroughly clean the room.We stayed again this time in March.  I hoped the previous visit was just an anomaly. When we returned to the room,however on the second day, the door to the room was not shut.  Another morning I had to get some work done so I hung the "Do Not Disturb" sign on the door.  At noon when, I left, I called the front desk and told them I was leaving and asked that they clean the room.  When I returned at 6 pm nothing had been touched.  The maintenance and housekeeping staff evidently just don't care. For each of these visits we were given a discount on our bill, but I would have much preferred a clean, well lit, well maintained room.  Unfortunately we will not be returning to The Commons nor can we recommend that anyone else stay there.  It's sad when good things go bad from neglect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r254938278-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>254938278</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>Just your average hotel room but without the average exterior</t>
+  </si>
+  <si>
+    <t>The room was just like every other mid-range hotel room but instead of having corridor after corridor of twin doors like you find at a hotel, you are sharing an apartment building with people who make the facilities their home.Require a $50 deposit  for "incidentals" that you have to assume you will get back but only after maid service has checked the room (and hope you aren't blamed for something left by the previous occupant like the burn hole in the non-smoking room blanket for example).  $20 a night pet fee but otherwise fairly pet friendly.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r251099585-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>251099585</t>
+  </si>
+  <si>
+    <t>01/26/2015</t>
+  </si>
+  <si>
+    <t>Good value for price</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for four nights last week and it was a good value for the price. The room had a desk, small fridge and microwave. It also had a small walk in closet. The bathroom was average and the sink was inside the bathroom. (we prefer an outside sink so one can shower and one can use mirror) Breakfast was good as well, usually eggs or breakfast burrito as well as fruit, yogurt, meat and a variety of cereal and oatmeal. As usual, the pillows were horrible! Too soft.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r248661885-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>248661885</t>
+  </si>
+  <si>
+    <t>01/10/2015</t>
+  </si>
+  <si>
+    <t>The Premium King Rooms are TERRIBLE!</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 nights, expecting a 3-Star hotel...WRONG! The hotel reception area was fine, and Lena at the front desk was great. Everything was down hill from there. First off the recliner (the only seating in the room other than the desk) was broken (you sit in it and sink straight to the floor) and  there was no replacement available. The carpets were dirty and never vacuumed during the entire stay. The King size bed (their only option) was way too big for the room. The mattress was hard as rock! I have never in my life tried to sleep on such a hard mattress (I spent a year in Iraq for reference). The heating unit would only blow on high. Last , but not least: THE NOISE! Every single sound coming from the attached Kitchenette room  or outside the front door could be heard inside the room. There is NO sound proofing whatsoever.  For the record this is the worst hotel I have ever stayed in. I cancelled ALL my weekly stays here that I had planned for the next 3 months. Heed the warnings of other reviewers here!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 nights, expecting a 3-Star hotel...WRONG! The hotel reception area was fine, and Lena at the front desk was great. Everything was down hill from there. First off the recliner (the only seating in the room other than the desk) was broken (you sit in it and sink straight to the floor) and  there was no replacement available. The carpets were dirty and never vacuumed during the entire stay. The King size bed (their only option) was way too big for the room. The mattress was hard as rock! I have never in my life tried to sleep on such a hard mattress (I spent a year in Iraq for reference). The heating unit would only blow on high. Last , but not least: THE NOISE! Every single sound coming from the attached Kitchenette room  or outside the front door could be heard inside the room. There is NO sound proofing whatsoever.  For the record this is the worst hotel I have ever stayed in. I cancelled ALL my weekly stays here that I had planned for the next 3 months. Heed the warnings of other reviewers here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r236970672-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>236970672</t>
+  </si>
+  <si>
+    <t>10/29/2014</t>
+  </si>
+  <si>
+    <t>Clean and Unique</t>
+  </si>
+  <si>
+    <t>Stayed in a suite which was nicely appointed and fulfilled my needs for a room.  Parking is crowded as the hotel shares facilities with what are either condos or apartments.  This dynamic makes it unique.  I did not encounter any issues even though some business associates said their room had a lot of outside noise.  The breakfast was the usual hotel fare and it was acceptable and again the dining area was very clean.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r233215851-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>233215851</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>Terrible avoid</t>
+  </si>
+  <si>
+    <t>I booked a room via Priceline for a cancer surgery.  Arrived the night before my surgery at 9:30 pm. The door was locked and the place just looked strange. A VERY rude front desk clerk told me that they were sold out and they had no rooms for me. They had cancelled all Priceline reservations that morning, although they never told Priceline. This lady was terrible beyond belief. Thankfully Priceline booked me in to the Hyatt Place Denver South which is amazing. Stay there instead I definately dodged a bullet</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r224333603-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>224333603</t>
+  </si>
+  <si>
+    <t>08/25/2014</t>
+  </si>
+  <si>
+    <t>Great little place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We recently stayed overnight at this hotel and found the staff amazingly accommodating.  We were late getting in for a concert and they were kind enough to drop us off. The little gal kept us entertained all the way to our venue... additionally she was helpful on restaurants and shopping in the area. We greatly appreciated the staffs willingness to go the extra mile! Our room was comfortable and reasonably priced. Overall a very nice stay. </t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r222288068-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>222288068</t>
+  </si>
+  <si>
+    <t>08/16/2014</t>
+  </si>
+  <si>
+    <t>Overall a great place to stay.</t>
+  </si>
+  <si>
+    <t>Stayed here for two weeks recently. The room was very clean and the furniture updated. The beds were comfortable and breakfast was great. The staff was nice and went out of their way to accommodate any requests. The rate for a suite with full kitchen was better than local regular hotel rooms. The pool was clean, large and we enjoyed it a lot. Nice to find an outdoor pool in Denver. A few suggestions: please update the appliances in your suite kitchens. They are old and almost unusable. Also maintenance is nice, but it is very annoying to constantly have to step around them and to have to walk all the way around to the back of the hotel because work vans and trucks are blocking the entrance. The manager could have at least opened a side door for guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for two weeks recently. The room was very clean and the furniture updated. The beds were comfortable and breakfast was great. The staff was nice and went out of their way to accommodate any requests. The rate for a suite with full kitchen was better than local regular hotel rooms. The pool was clean, large and we enjoyed it a lot. Nice to find an outdoor pool in Denver. A few suggestions: please update the appliances in your suite kitchens. They are old and almost unusable. Also maintenance is nice, but it is very annoying to constantly have to step around them and to have to walk all the way around to the back of the hotel because work vans and trucks are blocking the entrance. The manager could have at least opened a side door for guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r218711939-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>218711939</t>
+  </si>
+  <si>
+    <t>07/31/2014</t>
+  </si>
+  <si>
+    <t>Denver Hotel</t>
+  </si>
+  <si>
+    <t>A flew pluses for this property.  Good location just off I-25.  Breakfast was pretty good and the views from the breakfast area was very good.  Finally, we rarely swim in a pool but their pool was very nice, especially after a hot day at the botanical gardens.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r208063669-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>208063669</t>
+  </si>
+  <si>
+    <t>05/30/2014</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>We have stayed here three times now, the rooms and surroundings are worth far more than the price. It is located just a few blocks off I-25. The rooms have been flawlessly clean, and the front desk service has been excellent. We always leave early so I can't comment on the breakfast, but I would assume it would be in keeping with the rest of the amenities. We have made it our choice of places to stay in the Denver area. Definitely will stay there again.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r199683363-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>199683363</t>
+  </si>
+  <si>
+    <t>04/02/2014</t>
+  </si>
+  <si>
+    <t>Unclean - old apartments</t>
+  </si>
+  <si>
+    <t>I was very disappointed with experience. I asked for one of there renovated rooms and was told we were in a nice room that used to be there model room. Maintenance told me that was over 10 years ago. Upon checking in 1 of 4 keys works. Went inside and conditions were not clean --- dog hair on furniture, cracked countertops, clocks not adjusted for daylight savings, both toilets were not working properly and there were several ants on kitchen counter and sink. I tried to get a room change but was told it was not possible. Maintenance came and was very friendly. He fixed toilets and sprayed for ants but you know ants---- takes a lot of time to really get rid of them. Plus then the room stunk from the spray all night. We had a lot of ants the next day. We asked for a discount on room and were given $10 off which really is not acceptable. With that said the on duty manager was very friendly and seemed overwhelmed that I didn't have the heart to argue for more. She said they have ants in all there bottom level rooms because of time of year. They are old apartments renovated into extended stay suites. I was very uncomfortable there - it just did not seem clean at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>I was very disappointed with experience. I asked for one of there renovated rooms and was told we were in a nice room that used to be there model room. Maintenance told me that was over 10 years ago. Upon checking in 1 of 4 keys works. Went inside and conditions were not clean --- dog hair on furniture, cracked countertops, clocks not adjusted for daylight savings, both toilets were not working properly and there were several ants on kitchen counter and sink. I tried to get a room change but was told it was not possible. Maintenance came and was very friendly. He fixed toilets and sprayed for ants but you know ants---- takes a lot of time to really get rid of them. Plus then the room stunk from the spray all night. We had a lot of ants the next day. We asked for a discount on room and were given $10 off which really is not acceptable. With that said the on duty manager was very friendly and seemed overwhelmed that I didn't have the heart to argue for more. She said they have ants in all there bottom level rooms because of time of year. They are old apartments renovated into extended stay suites. I was very uncomfortable there - it just did not seem clean at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r193382002-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>193382002</t>
+  </si>
+  <si>
+    <t>02/07/2014</t>
+  </si>
+  <si>
+    <t>Good weekend stay</t>
+  </si>
+  <si>
+    <t>We stayed here for a Saturday and Sunday in February.  After doing some research I made sure to request a newly remodeled unit and it looked just like the pictures.  It appears others that stay in this complex have differing experiences depending on what room they get.  We had great, friendly service from the front desk.  The beds were comfortable, the fireplace and appliances all worked.  The bathroom and kitchen while remodeled still looked a little tired.  The fixtures were quite dated and the appliances a little on the old side (but not too bad).  The bedrooms and living/dining areas are great.  New bedding, flat panel TV's and furniture.  Bottom line is that I would stay here again as long as I could verify what room I was getting.  The price is very resonable and the accommodations, while not top of the line, are comfortable and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for a Saturday and Sunday in February.  After doing some research I made sure to request a newly remodeled unit and it looked just like the pictures.  It appears others that stay in this complex have differing experiences depending on what room they get.  We had great, friendly service from the front desk.  The beds were comfortable, the fireplace and appliances all worked.  The bathroom and kitchen while remodeled still looked a little tired.  The fixtures were quite dated and the appliances a little on the old side (but not too bad).  The bedrooms and living/dining areas are great.  New bedding, flat panel TV's and furniture.  Bottom line is that I would stay here again as long as I could verify what room I was getting.  The price is very resonable and the accommodations, while not top of the line, are comfortable and clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r178950038-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>178950038</t>
+  </si>
+  <si>
+    <t>09/28/2013</t>
+  </si>
+  <si>
+    <t>Great stay for 3 weeks!</t>
+  </si>
+  <si>
+    <t>We had to find a temporary residence after our house sale/move hit a snag on closing dates and we did not want to pay for a hotel for a family (too close for comfort) and having to eat out 3 meals a day.  Found the Commons Hotel after an exhaustive search.
+Tried to check in about 1PM  for a 3 week stay and was flat out told, “we don’t check in until 3”. 
+Got up to the room and it was very clean. The 1 bedroom suite is maxed out for room for 4 people, sharing a bathroom so it is a bit tight, but we have 2 kids so it was not too big of a problem. Had planned on bringing our dog ($10 a night) but we felt the room was too small and the area did not have much of a grassy area to use so we went with a kennel just for convenience sake. 
+There is not a lot of storage space (1 small closet at entry, 1 closet area (mini-walk in portion of the bedroom) and one 6-drawer space in the bedroom. 
+Small kitchen with no real pantry, so if you are planning on eating in a lot, you may want to use the countertop as we did for cereal, canned goods, etc.
+All the appliances worked fine, no problems at all and we used them a lot! Another reviewer posted about loud/ineffective AC but...We had to find a temporary residence after our house sale/move hit a snag on closing dates and we did not want to pay for a hotel for a family (too close for comfort) and having to eat out 3 meals a day.  Found the Commons Hotel after an exhaustive search.Tried to check in about 1PM  for a 3 week stay and was flat out told, “we don’t check in until 3”. Got up to the room and it was very clean. The 1 bedroom suite is maxed out for room for 4 people, sharing a bathroom so it is a bit tight, but we have 2 kids so it was not too big of a problem. Had planned on bringing our dog ($10 a night) but we felt the room was too small and the area did not have much of a grassy area to use so we went with a kennel just for convenience sake. There is not a lot of storage space (1 small closet at entry, 1 closet area (mini-walk in portion of the bedroom) and one 6-drawer space in the bedroom. Small kitchen with no real pantry, so if you are planning on eating in a lot, you may want to use the countertop as we did for cereal, canned goods, etc.All the appliances worked fine, no problems at all and we used them a lot! Another reviewer posted about loud/ineffective AC but ours did great for a string of 90+ days. Be advised the 1 bedroom suite is made into a 2 bedroom by simply utilizing a door to an adjoining hotel style room. No big deal but the door is very thin and you can hear things through it. We lucked out and for our 3 weeks we only had 1 day of a dog barking, but no other major issues. Conversely, if you are staying in a single hotel style room The area was very quiet. Parking can be tricky though as this is a mixed use apartment/long term housing.  The hottub is broken with no plans to fix it but the pool was cool for the hot days this August. Internet - If it’s the evening, it is a crap-shoot.  No service is happened several times but was more common in the evening, my guess is when everyone else is trying to get on. I am an early riser and no problems before 7 AM but anything after 6:30 PM in the evening COULD be touchy to about 10PM. Some nights it had no problems at all. Also, no matter what hour, streaming can be iffy. Some Netflix tv shows played fine, while others buffered every 1-2 minutesBusiness center – is really just a computer. It can not open word files, PDF is fine, when I needed to print 3 pages for a meeting. They will send and receive faxes for you at the front desk. Breakfast – Everyday but Sunday. Each day had waffle maker with some toppings available, mixed breads, mixed fruits, 2-3 choices of cereal, oatmeal, various milks and juices.  Some days the waffle was blueberry.Other rotating items, Saturday – no additional items. Monday – Eggs, bacon, hashbrowns. Tue - Scrambled eggs with sides of sausage and hash browns. Wed - Breakfast burritos with green chili sauce. Thurs – Ham egg and cheese croissantsFriday - Biscuits and gravyThis was the list the entire time we were there. We spoke to a group from Japan and they enjoyed the stay as well since it was a quick walk to the light rail station.  Overall if I had friends/family coming in for an extended time I would have them use the Commons. Good prices, friendly staff (minus check-in rigidity), decent quick breakfast and easy access to the highway and a quick 8 minute walk to the Light Rail station.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>We had to find a temporary residence after our house sale/move hit a snag on closing dates and we did not want to pay for a hotel for a family (too close for comfort) and having to eat out 3 meals a day.  Found the Commons Hotel after an exhaustive search.
+Tried to check in about 1PM  for a 3 week stay and was flat out told, “we don’t check in until 3”. 
+Got up to the room and it was very clean. The 1 bedroom suite is maxed out for room for 4 people, sharing a bathroom so it is a bit tight, but we have 2 kids so it was not too big of a problem. Had planned on bringing our dog ($10 a night) but we felt the room was too small and the area did not have much of a grassy area to use so we went with a kennel just for convenience sake. 
+There is not a lot of storage space (1 small closet at entry, 1 closet area (mini-walk in portion of the bedroom) and one 6-drawer space in the bedroom. 
+Small kitchen with no real pantry, so if you are planning on eating in a lot, you may want to use the countertop as we did for cereal, canned goods, etc.
+All the appliances worked fine, no problems at all and we used them a lot! Another reviewer posted about loud/ineffective AC but...We had to find a temporary residence after our house sale/move hit a snag on closing dates and we did not want to pay for a hotel for a family (too close for comfort) and having to eat out 3 meals a day.  Found the Commons Hotel after an exhaustive search.Tried to check in about 1PM  for a 3 week stay and was flat out told, “we don’t check in until 3”. Got up to the room and it was very clean. The 1 bedroom suite is maxed out for room for 4 people, sharing a bathroom so it is a bit tight, but we have 2 kids so it was not too big of a problem. Had planned on bringing our dog ($10 a night) but we felt the room was too small and the area did not have much of a grassy area to use so we went with a kennel just for convenience sake. There is not a lot of storage space (1 small closet at entry, 1 closet area (mini-walk in portion of the bedroom) and one 6-drawer space in the bedroom. Small kitchen with no real pantry, so if you are planning on eating in a lot, you may want to use the countertop as we did for cereal, canned goods, etc.All the appliances worked fine, no problems at all and we used them a lot! Another reviewer posted about loud/ineffective AC but ours did great for a string of 90+ days. Be advised the 1 bedroom suite is made into a 2 bedroom by simply utilizing a door to an adjoining hotel style room. No big deal but the door is very thin and you can hear things through it. We lucked out and for our 3 weeks we only had 1 day of a dog barking, but no other major issues. Conversely, if you are staying in a single hotel style room The area was very quiet. Parking can be tricky though as this is a mixed use apartment/long term housing.  The hottub is broken with no plans to fix it but the pool was cool for the hot days this August. Internet - If it’s the evening, it is a crap-shoot.  No service is happened several times but was more common in the evening, my guess is when everyone else is trying to get on. I am an early riser and no problems before 7 AM but anything after 6:30 PM in the evening COULD be touchy to about 10PM. Some nights it had no problems at all. Also, no matter what hour, streaming can be iffy. Some Netflix tv shows played fine, while others buffered every 1-2 minutesBusiness center – is really just a computer. It can not open word files, PDF is fine, when I needed to print 3 pages for a meeting. They will send and receive faxes for you at the front desk. Breakfast – Everyday but Sunday. Each day had waffle maker with some toppings available, mixed breads, mixed fruits, 2-3 choices of cereal, oatmeal, various milks and juices.  Some days the waffle was blueberry.Other rotating items, Saturday – no additional items. Monday – Eggs, bacon, hashbrowns. Tue - Scrambled eggs with sides of sausage and hash browns. Wed - Breakfast burritos with green chili sauce. Thurs – Ham egg and cheese croissantsFriday - Biscuits and gravyThis was the list the entire time we were there. We spoke to a group from Japan and they enjoyed the stay as well since it was a quick walk to the light rail station.  Overall if I had friends/family coming in for an extended time I would have them use the Commons. Good prices, friendly staff (minus check-in rigidity), decent quick breakfast and easy access to the highway and a quick 8 minute walk to the Light Rail station.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r175894158-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>175894158</t>
+  </si>
+  <si>
+    <t>09/05/2013</t>
+  </si>
+  <si>
+    <t>Nice suite but terrible service</t>
+  </si>
+  <si>
+    <t>Upon arriving we were yelled out to from the back room which I found unprofessional. When the woman did come out she was all flustered about their computers being down. We went the next day to the front desk to ask a question about their outdoor grill (which had no ignitor) and another couple was waiting to be checked it. A few of the cleaning people  went by us to the back office but ignored us all. I asked them where the woman was and they said she drove someone somewhere. What?! She came back shortly after but no one was pleased. They should have a driver for that. The hot tub also was not working. We did love our spacious one bedroom suite though and other than the front desk issues we enjoyed our stay. We were out most of every day.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Upon arriving we were yelled out to from the back room which I found unprofessional. When the woman did come out she was all flustered about their computers being down. We went the next day to the front desk to ask a question about their outdoor grill (which had no ignitor) and another couple was waiting to be checked it. A few of the cleaning people  went by us to the back office but ignored us all. I asked them where the woman was and they said she drove someone somewhere. What?! She came back shortly after but no one was pleased. They should have a driver for that. The hot tub also was not working. We did love our spacious one bedroom suite though and other than the front desk issues we enjoyed our stay. We were out most of every day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r175134692-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>175134692</t>
+  </si>
+  <si>
+    <t>09/01/2013</t>
+  </si>
+  <si>
+    <t>Horrible management</t>
+  </si>
+  <si>
+    <t>I had the misfortune of staying here for a week this past summer.  The room was very nice, recently re done with new furniture, carpet, paint and an extra large flat screen.  I booked through Priceline and the hotel billed itself as pet friendly.  However they only accept dogs at an extra charge.
+I listened to the occupants of the room next door get serviced by a couple of professionals who I later had the pleasure of meeting in the hall.  They actually were quite friendly.  I wouldn't have much cared but I was on a business call at the time and hoped that the party on the other end of the line couldn't hear what I was hearing quite clearly.
+In the middle of my stay I was getting ready for a meeting and received a call by from the front desk saying that they had previously rented my room to a VIP and that I would need to vacate to another room on the third floor (with old carpet and an old televison).  After a lot of back and forth I agreed and was 40 minutes late for my meeting partially because the door to the new room had a door knob that stuck and trapped me in the room.  I was literally stuck inside the room until someone from the staff came an opened the door from the outside.  It happened twice and each time the staff...I had the misfortune of staying here for a week this past summer.  The room was very nice, recently re done with new furniture, carpet, paint and an extra large flat screen.  I booked through Priceline and the hotel billed itself as pet friendly.  However they only accept dogs at an extra charge.I listened to the occupants of the room next door get serviced by a couple of professionals who I later had the pleasure of meeting in the hall.  They actually were quite friendly.  I wouldn't have much cared but I was on a business call at the time and hoped that the party on the other end of the line couldn't hear what I was hearing quite clearly.In the middle of my stay I was getting ready for a meeting and received a call by from the front desk saying that they had previously rented my room to a VIP and that I would need to vacate to another room on the third floor (with old carpet and an old televison).  After a lot of back and forth I agreed and was 40 minutes late for my meeting partially because the door to the new room had a door knob that stuck and trapped me in the room.  I was literally stuck inside the room until someone from the staff came an opened the door from the outside.  It happened twice and each time the staff acted as though it was my imagination or fault.  In reality it's a huge fire hazard.  No one really gave a damn about that, they just acted inconvenienced.  I think this attitude comes from the general manager, named John.  Much of the staff mentioned him by name and seemed to dread his arrival.  I asked to be given a ride to the post office by their shuttle service and upon leaving found that I had been left there.  I called the hotel and the front desk person (same person who left me there) would not answer the phone.  I didn't know if she was still sitting in the parking lot and just wanted to let her know that I was walking back to the hotel (in heels no less).  It wasn't until I called from a different phone number that she answered on the first or second ring.  Truly unbelievable...  On check out I was told I owed for pet fees.  I'd been there for nearly a week and paid for a few days at a time so where did these fees suddenly come from?  I couldn't get out of this place fast enough and checked into another hotel while looking for a permanent place to live.  Upon checking in to my new accomodations I was greeted by the hotel manager saying that John had called her and told her that I was skipped out on hotel bills.  ???  Just then the same shuttle driver who left me at the post office walked in to the lobby of the new hotel, snapped her gum at me and told me to hurry and get my luggage because she had to get back.  The only time my stay at Commons was peaceful was over the weekend when John et al were not there and there was one person there running the whole show.  She actually provided excellent customer service to several guests each time I was sitting in the lobby.  Things ran smoothly and there was no drama.  By the end of the weekend I could see how unfair it was to leave one person running the hotel and she worked the entire weekend non stop.  Unbelievable.  This place is probably okay for a quick, cheap overnight stay as long as you don't get stuck in the room with semi functioning door knob and you're there on the weekend.  Otherwise there are many other places close by that do a much better job.  Avoid the powdered eggs at the free breakfast.  They taste like...powder.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had the misfortune of staying here for a week this past summer.  The room was very nice, recently re done with new furniture, carpet, paint and an extra large flat screen.  I booked through Priceline and the hotel billed itself as pet friendly.  However they only accept dogs at an extra charge.
+I listened to the occupants of the room next door get serviced by a couple of professionals who I later had the pleasure of meeting in the hall.  They actually were quite friendly.  I wouldn't have much cared but I was on a business call at the time and hoped that the party on the other end of the line couldn't hear what I was hearing quite clearly.
+In the middle of my stay I was getting ready for a meeting and received a call by from the front desk saying that they had previously rented my room to a VIP and that I would need to vacate to another room on the third floor (with old carpet and an old televison).  After a lot of back and forth I agreed and was 40 minutes late for my meeting partially because the door to the new room had a door knob that stuck and trapped me in the room.  I was literally stuck inside the room until someone from the staff came an opened the door from the outside.  It happened twice and each time the staff...I had the misfortune of staying here for a week this past summer.  The room was very nice, recently re done with new furniture, carpet, paint and an extra large flat screen.  I booked through Priceline and the hotel billed itself as pet friendly.  However they only accept dogs at an extra charge.I listened to the occupants of the room next door get serviced by a couple of professionals who I later had the pleasure of meeting in the hall.  They actually were quite friendly.  I wouldn't have much cared but I was on a business call at the time and hoped that the party on the other end of the line couldn't hear what I was hearing quite clearly.In the middle of my stay I was getting ready for a meeting and received a call by from the front desk saying that they had previously rented my room to a VIP and that I would need to vacate to another room on the third floor (with old carpet and an old televison).  After a lot of back and forth I agreed and was 40 minutes late for my meeting partially because the door to the new room had a door knob that stuck and trapped me in the room.  I was literally stuck inside the room until someone from the staff came an opened the door from the outside.  It happened twice and each time the staff acted as though it was my imagination or fault.  In reality it's a huge fire hazard.  No one really gave a damn about that, they just acted inconvenienced.  I think this attitude comes from the general manager, named John.  Much of the staff mentioned him by name and seemed to dread his arrival.  I asked to be given a ride to the post office by their shuttle service and upon leaving found that I had been left there.  I called the hotel and the front desk person (same person who left me there) would not answer the phone.  I didn't know if she was still sitting in the parking lot and just wanted to let her know that I was walking back to the hotel (in heels no less).  It wasn't until I called from a different phone number that she answered on the first or second ring.  Truly unbelievable...  On check out I was told I owed for pet fees.  I'd been there for nearly a week and paid for a few days at a time so where did these fees suddenly come from?  I couldn't get out of this place fast enough and checked into another hotel while looking for a permanent place to live.  Upon checking in to my new accomodations I was greeted by the hotel manager saying that John had called her and told her that I was skipped out on hotel bills.  ???  Just then the same shuttle driver who left me at the post office walked in to the lobby of the new hotel, snapped her gum at me and told me to hurry and get my luggage because she had to get back.  The only time my stay at Commons was peaceful was over the weekend when John et al were not there and there was one person there running the whole show.  She actually provided excellent customer service to several guests each time I was sitting in the lobby.  Things ran smoothly and there was no drama.  By the end of the weekend I could see how unfair it was to leave one person running the hotel and she worked the entire weekend non stop.  Unbelievable.  This place is probably okay for a quick, cheap overnight stay as long as you don't get stuck in the room with semi functioning door knob and you're there on the weekend.  Otherwise there are many other places close by that do a much better job.  Avoid the powdered eggs at the free breakfast.  They taste like...powder.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r162563348-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>162563348</t>
+  </si>
+  <si>
+    <t>05/31/2013</t>
+  </si>
+  <si>
+    <t>Love the place but a bit steep now I think*</t>
+  </si>
+  <si>
+    <t>wow. I called to check availability on a monthly rate stay to book with them directly and I'm told straight out that the monthly rate of $2400 will be way too high for us and they won't be coming down. *why yes, that is a little steep, especially when i have rented from one of the private owners for $1,175 per month*Hate it.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r155667590-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>155667590</t>
+  </si>
+  <si>
+    <t>03/25/2013</t>
+  </si>
+  <si>
+    <t>Much More than Anticipated!</t>
+  </si>
+  <si>
+    <t>Excellent stay here for our daughter's graduation. Great bang for the buck! Pleasantly surprised by the 2 bedroom, 2 bath suite. Actually it was more like an apartment with to separate entrances. The unit had a lovely gas fireplace, comfy sofa, 3 TV's, washer/dryer, and  a fully furnished kitchen. Comfortable and nice private enough layout with adult children. We were here during a  big winterstorm and Dana made our stay very pleasant. Light breakfast weekdays and Saturday. Bring food, clothes, personal effects and laundry detergent; then  you're set for a long weekend or work week. Nice home away from home.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r143857298-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>143857298</t>
+  </si>
+  <si>
+    <t>10/27/2012</t>
+  </si>
+  <si>
+    <t>It's okay...</t>
+  </si>
+  <si>
+    <t>We stayed here for 8 days for a medical stay.  We wanted to have housing that had a separate bedroom and living area because we both planned to work from our laptops while in the area.  There are rooms that have been updated and rooms that have not.  The night before arrival, I called the front desk to ensure that we had an upgraded room.  Upon arrival, we were situated in building 5, floor 3.  We lugged our luggage up the three flights and found a "non" updated room.  There was an old fashioned 32" box tv on a 1980's wooden end table.  The place was very dated.  We immediately called the front desk to ask for a room change.  Within minutes the front desk attendant met us and escorted us down one level to a new room.  The new room was a little better.  There was a flat screen tv but that was probably the only thing that was updated.  The couch and chair were comfortable however they were worn and had a couple of holes in them.  The kitchen cupboards were from the 1980's and the formica countertops had wear &amp; tear.  The bathroom caulking had mold and the corners of bathroom were dusty &amp; dirty.  The room was not horrible it was just "ho-hum".  The price of the 1 bedroom suite per night was $72.  This was an excellent deal.  What we like the best about Boston...We stayed here for 8 days for a medical stay.  We wanted to have housing that had a separate bedroom and living area because we both planned to work from our laptops while in the area.  There are rooms that have been updated and rooms that have not.  The night before arrival, I called the front desk to ensure that we had an upgraded room.  Upon arrival, we were situated in building 5, floor 3.  We lugged our luggage up the three flights and found a "non" updated room.  There was an old fashioned 32" box tv on a 1980's wooden end table.  The place was very dated.  We immediately called the front desk to ask for a room change.  Within minutes the front desk attendant met us and escorted us down one level to a new room.  The new room was a little better.  There was a flat screen tv but that was probably the only thing that was updated.  The couch and chair were comfortable however they were worn and had a couple of holes in them.  The kitchen cupboards were from the 1980's and the formica countertops had wear &amp; tear.  The bathroom caulking had mold and the corners of bathroom were dusty &amp; dirty.  The room was not horrible it was just "ho-hum".  The price of the 1 bedroom suite per night was $72.  This was an excellent deal.  What we like the best about Boston Commons was the location.  It is close to a lot of great restaurants!  They have a hot breakfast located in the clubhouse every morning except for Sunday.  I would stay here again knowing that I don't have very high expectations and the price was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>We stayed here for 8 days for a medical stay.  We wanted to have housing that had a separate bedroom and living area because we both planned to work from our laptops while in the area.  There are rooms that have been updated and rooms that have not.  The night before arrival, I called the front desk to ensure that we had an upgraded room.  Upon arrival, we were situated in building 5, floor 3.  We lugged our luggage up the three flights and found a "non" updated room.  There was an old fashioned 32" box tv on a 1980's wooden end table.  The place was very dated.  We immediately called the front desk to ask for a room change.  Within minutes the front desk attendant met us and escorted us down one level to a new room.  The new room was a little better.  There was a flat screen tv but that was probably the only thing that was updated.  The couch and chair were comfortable however they were worn and had a couple of holes in them.  The kitchen cupboards were from the 1980's and the formica countertops had wear &amp; tear.  The bathroom caulking had mold and the corners of bathroom were dusty &amp; dirty.  The room was not horrible it was just "ho-hum".  The price of the 1 bedroom suite per night was $72.  This was an excellent deal.  What we like the best about Boston...We stayed here for 8 days for a medical stay.  We wanted to have housing that had a separate bedroom and living area because we both planned to work from our laptops while in the area.  There are rooms that have been updated and rooms that have not.  The night before arrival, I called the front desk to ensure that we had an upgraded room.  Upon arrival, we were situated in building 5, floor 3.  We lugged our luggage up the three flights and found a "non" updated room.  There was an old fashioned 32" box tv on a 1980's wooden end table.  The place was very dated.  We immediately called the front desk to ask for a room change.  Within minutes the front desk attendant met us and escorted us down one level to a new room.  The new room was a little better.  There was a flat screen tv but that was probably the only thing that was updated.  The couch and chair were comfortable however they were worn and had a couple of holes in them.  The kitchen cupboards were from the 1980's and the formica countertops had wear &amp; tear.  The bathroom caulking had mold and the corners of bathroom were dusty &amp; dirty.  The room was not horrible it was just "ho-hum".  The price of the 1 bedroom suite per night was $72.  This was an excellent deal.  What we like the best about Boston Commons was the location.  It is close to a lot of great restaurants!  They have a hot breakfast located in the clubhouse every morning except for Sunday.  I would stay here again knowing that I don't have very high expectations and the price was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r138999438-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>138999438</t>
+  </si>
+  <si>
+    <t>08/31/2012</t>
+  </si>
+  <si>
+    <t>Great place to stay in Denver</t>
+  </si>
+  <si>
+    <t>We stayed in 1-bedroom suite for 4 nights just this August, all was great. They told us we got one of remodeled suites with new furniture so don't know about the others, but ours was really very nice and cozy, with a gas fireplace. There are apparently no elevators and we had to lag the bags up to the third floor but this was OK. Breakfast and housekeeping was not offered on Saturday and Sunday but we expected that having read the reviews. Otherwise the breakfast was good, washer&amp;drier en suite very handy. Easy access to highway 25.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r138227656-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>138227656</t>
+  </si>
+  <si>
+    <t>08/24/2012</t>
+  </si>
+  <si>
+    <t>false advertisement</t>
+  </si>
+  <si>
+    <t>we rented this room because it offered a shuttle to any where with-in 5 miles of hotel and told they could not take us there because they were not allowed to go into parking area so we called a cab that dropped us off in front of the venue and did not have to go into parking area . That shuttle never left the parking lot the whole 3 days we stayed there, we asked for a ground floor room but they could not accomadate us there either so instead of a second floor room we had a third floor room and no elevator. The parking is terrible and the rooms have definatly been lived in.MoreShow less</t>
+  </si>
+  <si>
+    <t>we rented this room because it offered a shuttle to any where with-in 5 miles of hotel and told they could not take us there because they were not allowed to go into parking area so we called a cab that dropped us off in front of the venue and did not have to go into parking area . That shuttle never left the parking lot the whole 3 days we stayed there, we asked for a ground floor room but they could not accomadate us there either so instead of a second floor room we had a third floor room and no elevator. The parking is terrible and the rooms have definatly been lived in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r135389339-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>135389339</t>
+  </si>
+  <si>
+    <t>07/25/2012</t>
+  </si>
+  <si>
+    <t>Does not honor reservations!</t>
+  </si>
+  <si>
+    <t>Booked a 2 bedroom suite in march for a stay in august (5 months in advance). Credit Card charged. Received email 2 weeks before arrival date stating reservation cancelled......no reason given. Called the next morning and was told hotel was overbooked so my reservation was cancelled...sorry. VERY UNPROFESSIONAL!  Beware just because you make reservation and they charge your credit card dosent mean you have a room!</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r133878215-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>133878215</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>Condo type, good breakfast, Price is right</t>
+  </si>
+  <si>
+    <t>Stayed for 3 nights.  I stay here every year for a business trip to Denver.  Most rooms are upgraded and nice.  Refrigerator and microwave in most along with flat screen TVs.  The pillows are rock hard.  But, for the price, I think next time I'll take a trip to Target and buy a better pillow and still save money over any other place close.  It's a quiet area and feels very safe.  The hot breakfast is very good, and changes each morning.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r131138897-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>131138897</t>
+  </si>
+  <si>
+    <t>06/02/2012</t>
+  </si>
+  <si>
+    <t>Good basic accommodations for business traveler</t>
+  </si>
+  <si>
+    <t>Comfortable room and bed. Good breakfast included. Good value pricing. Good location near Denver Tech Center.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r124925451-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>124925451</t>
+  </si>
+  <si>
+    <t>02/20/2012</t>
+  </si>
+  <si>
+    <t>Great Place To stay!!!</t>
+  </si>
+  <si>
+    <t>This hotel has excellent customer service and LOVE the rooms service they provide at this hotel. I would stay with my family again here. Would recommend to anyone that wants to stay in a comfortable hotel!!</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r116495912-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>116495912</t>
+  </si>
+  <si>
+    <t>08/09/2011</t>
+  </si>
+  <si>
+    <t>convenient location, clean, friendly staff</t>
+  </si>
+  <si>
+    <t>Great location near a major highway, convenient to most tourist destinations in the Denver area, located in a residential area so it felt very safe, also close to restaurants/shops, only drawback was there was no elevator and we had a 3rd floor room, it was nice not to have to enter through a hotel lobby you could just go straight to your room (apartment style), very convenient to have a mini-fridge and microwave in room also</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r116234055-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>116234055</t>
+  </si>
+  <si>
+    <t>08/03/2011</t>
+  </si>
+  <si>
+    <t>Great value when traveling with kids (or not)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love this place!  We ended up with a massive 2 bedroom 2 bath "apartment" for about $85/night. Full kitchen (microwave, stove, full sized fridge, dishwasher) &amp; washer/dryer. Front desk staff is very friendly &amp; helpful. Free breakfast, free happy hour in the evenings, very close to i25. Fitness center isn't really adequate but there are great sidewalks for running right outside. Not terribly close to downtown, but getting around Denver wasn't difficult. Would rather drive a bit to get to things and have this huge room in a nice, safe, easy to get to location. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r115952314-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>115952314</t>
+  </si>
+  <si>
+    <t>07/29/2011</t>
+  </si>
+  <si>
+    <t>NIce hotel</t>
+  </si>
+  <si>
+    <t>We stayed 5 nights at Commons in Englewood, we had the  one bedroom apartment, clean and ok rooms, great with the pool and good breakfast and the service from the staff was really good. Great value for the money.Fam. Winqvist</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r88283018-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>88283018</t>
+  </si>
+  <si>
+    <t>11/26/2010</t>
+  </si>
+  <si>
+    <t>Very nice place to stay for the price.</t>
+  </si>
+  <si>
+    <t>Check-in was a pleasure, very friendly and helpful by Dana and Maria, the desk clerks. Hotel is actually more like an appartment or condo complex, multistory. Location and setting is very nice, expecially for the pricing in this area. Included continental breakfast very good.</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r85898998-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>85898998</t>
+  </si>
+  <si>
+    <t>11/03/2010</t>
+  </si>
+  <si>
+    <t>Find another spot</t>
+  </si>
+  <si>
+    <t>From the musty/smoky old room smell to the pillows which haven't been deoderized, this location is one to pass on. I was given the "upgrade" to an "executive status" room. With the small fridge, microwave, and coffee pot located on the floor, a lack of power outlets with power strips on them, I would hate to see what a normal room is like. Slow "high speed" internet connection resembling of 56K.  I would pass on this "hotel".</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r67356185-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>67356185</t>
+  </si>
+  <si>
+    <t>06/13/2010</t>
+  </si>
+  <si>
+    <t>GREAT! Wonderful place to stay-cheap</t>
+  </si>
+  <si>
+    <t>I have never written a review before but feel I need to acknoledge this great deal! The staff was very helpful and upbeat even thoough I checked in 1 1/2 hours late (BAD traffic jam in Denver). I also forgot to book an extra day to catch my flight the day after conference ended-no problem, no huge fee (same price as when I booked on expedia). OK here it is-The Commons felt like a condo instead of a hotel. I was on the 3rd floor (no elevators) so I felt safe opening the window at night (window opened to a huge pine tree) I could hear the din of city traffic but mostly could hear the beautiful house finch singing outside my window...almost felt like home. Great comfy bed with duvet fluffy down comfortor. The decor was Arts and Crafts oak funiture with granit counter tops. There was walk in closet with a full sized ironing board and iron, lots of storage for clothes, a desk to work on. In the morning before my conference I could read by the window with morning sun shining in (til it rained the next 2 days). I got a free breakfast each day (not that great but free-none available on Sunday) I got a ride to and from my conference free. In the evening there was free beer and wine with hot snacks-again not great food but comforting and I was worried it...I have never written a review before but feel I need to acknoledge this great deal! The staff was very helpful and upbeat even thoough I checked in 1 1/2 hours late (BAD traffic jam in Denver). I also forgot to book an extra day to catch my flight the day after conference ended-no problem, no huge fee (same price as when I booked on expedia). OK here it is-The Commons felt like a condo instead of a hotel. I was on the 3rd floor (no elevators) so I felt safe opening the window at night (window opened to a huge pine tree) I could hear the din of city traffic but mostly could hear the beautiful house finch singing outside my window...almost felt like home. Great comfy bed with duvet fluffy down comfortor. The decor was Arts and Crafts oak funiture with granit counter tops. There was walk in closet with a full sized ironing board and iron, lots of storage for clothes, a desk to work on. In the morning before my conference I could read by the window with morning sun shining in (til it rained the next 2 days). I got a free breakfast each day (not that great but free-none available on Sunday) I got a ride to and from my conference free. In the evening there was free beer and wine with hot snacks-again not great food but comforting and I was worried it might be cheesey-but the 'crowd' (5-7 people) was couples or travelors like me just needing some homey comforts at the end of the day. I am a 52 year old female travelling by myself and I felt absolutely safe here. It's clean, friendly, and a great deal at 59/night (the next best price I got in area was 119/night). Oh yeah-there is a pool, hot tub, live plants on the club house tables and patio (where you go to eat). I did not bring my laptop but that was OK too, they have a computer in the club house you can use (also connections in rooms) The TV was high definition. What else can I say....it is a great find and I will always stay here when I need to stay in DenverMoreShow less</t>
+  </si>
+  <si>
+    <t>I have never written a review before but feel I need to acknoledge this great deal! The staff was very helpful and upbeat even thoough I checked in 1 1/2 hours late (BAD traffic jam in Denver). I also forgot to book an extra day to catch my flight the day after conference ended-no problem, no huge fee (same price as when I booked on expedia). OK here it is-The Commons felt like a condo instead of a hotel. I was on the 3rd floor (no elevators) so I felt safe opening the window at night (window opened to a huge pine tree) I could hear the din of city traffic but mostly could hear the beautiful house finch singing outside my window...almost felt like home. Great comfy bed with duvet fluffy down comfortor. The decor was Arts and Crafts oak funiture with granit counter tops. There was walk in closet with a full sized ironing board and iron, lots of storage for clothes, a desk to work on. In the morning before my conference I could read by the window with morning sun shining in (til it rained the next 2 days). I got a free breakfast each day (not that great but free-none available on Sunday) I got a ride to and from my conference free. In the evening there was free beer and wine with hot snacks-again not great food but comforting and I was worried it...I have never written a review before but feel I need to acknoledge this great deal! The staff was very helpful and upbeat even thoough I checked in 1 1/2 hours late (BAD traffic jam in Denver). I also forgot to book an extra day to catch my flight the day after conference ended-no problem, no huge fee (same price as when I booked on expedia). OK here it is-The Commons felt like a condo instead of a hotel. I was on the 3rd floor (no elevators) so I felt safe opening the window at night (window opened to a huge pine tree) I could hear the din of city traffic but mostly could hear the beautiful house finch singing outside my window...almost felt like home. Great comfy bed with duvet fluffy down comfortor. The decor was Arts and Crafts oak funiture with granit counter tops. There was walk in closet with a full sized ironing board and iron, lots of storage for clothes, a desk to work on. In the morning before my conference I could read by the window with morning sun shining in (til it rained the next 2 days). I got a free breakfast each day (not that great but free-none available on Sunday) I got a ride to and from my conference free. In the evening there was free beer and wine with hot snacks-again not great food but comforting and I was worried it might be cheesey-but the 'crowd' (5-7 people) was couples or travelors like me just needing some homey comforts at the end of the day. I am a 52 year old female travelling by myself and I felt absolutely safe here. It's clean, friendly, and a great deal at 59/night (the next best price I got in area was 119/night). Oh yeah-there is a pool, hot tub, live plants on the club house tables and patio (where you go to eat). I did not bring my laptop but that was OK too, they have a computer in the club house you can use (also connections in rooms) The TV was high definition. What else can I say....it is a great find and I will always stay here when I need to stay in DenverMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r45687830-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>45687830</t>
+  </si>
+  <si>
+    <t>10/02/2009</t>
+  </si>
+  <si>
+    <t>Very Good Choice to Stay in the Denver Area</t>
+  </si>
+  <si>
+    <t>I stayed at the Boston Commons on September 23, 2009 for one night. It was a stop over trip as I was on my way to Phoenix. I got an excellent rate of $66.50 CDN for one night through Expedia.I thought this hotel was a very good choice. The hotel is a little ways from downtown Denver but that was a concern for me. The surroundings were very nice. There is lots of green space and trees around the hotel. It was very quiet and very clean.You do have to walk up stairs if you are not on the first floor, but again that wasn't a big deal for me.The wireless internet worked perfectly from my room.There are bars, restaurants nearby.The breakfast was awesome. A hot breakfast, with eggs, potatoes, and the usual cereals, fruit, juice etc.I highly recommend staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I stayed at the Boston Commons on September 23, 2009 for one night. It was a stop over trip as I was on my way to Phoenix. I got an excellent rate of $66.50 CDN for one night through Expedia.I thought this hotel was a very good choice. The hotel is a little ways from downtown Denver but that was a concern for me. The surroundings were very nice. There is lots of green space and trees around the hotel. It was very quiet and very clean.You do have to walk up stairs if you are not on the first floor, but again that wasn't a big deal for me.The wireless internet worked perfectly from my room.There are bars, restaurants nearby.The breakfast was awesome. A hot breakfast, with eggs, potatoes, and the usual cereals, fruit, juice etc.I highly recommend staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r33080809-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>33080809</t>
+  </si>
+  <si>
+    <t>06/24/2009</t>
+  </si>
+  <si>
+    <t>Not for travelers of 50 or with kids No elevator to bring up bags and go up and down</t>
+  </si>
+  <si>
+    <t>I stayed there in June of 09 what a dissappointmentI would not recommend this hotel unless you wanted to walk up 3 floors of steps up and down all the time with kid or lagguage because most of  all the rooms that are avialible on on the 3rd floor. It is rated 3 stars without any elevators. I don't know who give this rating which is totally wrong. Tjhis one is loser stay away unless you wall up and down 3 stories all the time.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r32440548-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>32440548</t>
+  </si>
+  <si>
+    <t>06/16/2009</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>Great Place for value,service,extras!!!. Hotel is within walking distance of Denver Light-Rail making a trip  downtown convenient and cheap. Breakfasts were great,wine/beer reception on Mon.,Tues., Wed. evenings a treat. Staff very helpful!!!  Although not handicap  friendly, a great place if you do not need that facility. We will defintely stay again if in the area.</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r1671295-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>1671295</t>
+  </si>
+  <si>
+    <t>02/25/2004</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>My family and I just returned from an 11-day trip to the Denver area and were very pleased with the service we received from the staff at the Holtze Executive Village. This is not a luxury hotel but it is not an economy hotel but rather a comfortable business class hotel. The staff is excellent and goes out of their way to accommodate. The facilities are nice, clean, and quiet. They serve a light breakfast each morning and an evening hospitality reception on weekday nights that includes beer and wine. The rooms are comfortable and quite, have full kitchens (and basic utensils), and fireplaces. There are laundry facilities on site (and laundry service if you need it) and they are kid friendly. They provide transportation free of charge to immediate area surroundings and have a gym and outdoor pool. The rates are good and I would highly recommend this hotel. If we are in the area again we will most definitely use this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I just returned from an 11-day trip to the Denver area and were very pleased with the service we received from the staff at the Holtze Executive Village. This is not a luxury hotel but it is not an economy hotel but rather a comfortable business class hotel. The staff is excellent and goes out of their way to accommodate. The facilities are nice, clean, and quiet. They serve a light breakfast each morning and an evening hospitality reception on weekday nights that includes beer and wine. The rooms are comfortable and quite, have full kitchens (and basic utensils), and fireplaces. There are laundry facilities on site (and laundry service if you need it) and they are kid friendly. They provide transportation free of charge to immediate area surroundings and have a gym and outdoor pool. The rates are good and I would highly recommend this hotel. If we are in the area again we will most definitely use this hotel again.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1367,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1399,2808 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>110</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>135</v>
+      </c>
+      <c r="O16" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>79</v>
+      </c>
+      <c r="O18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" t="s">
+        <v>156</v>
+      </c>
+      <c r="L19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>158</v>
+      </c>
+      <c r="O19" t="s">
+        <v>86</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>164</v>
+      </c>
+      <c r="O20" t="s">
+        <v>86</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" t="s">
+        <v>169</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>170</v>
+      </c>
+      <c r="O21" t="s">
+        <v>110</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" t="s">
+        <v>174</v>
+      </c>
+      <c r="K22" t="s">
+        <v>175</v>
+      </c>
+      <c r="L22" t="s">
+        <v>176</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>177</v>
+      </c>
+      <c r="O22" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" t="s">
+        <v>182</v>
+      </c>
+      <c r="L23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>184</v>
+      </c>
+      <c r="O23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" t="s">
+        <v>189</v>
+      </c>
+      <c r="L24" t="s">
+        <v>190</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>191</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>184</v>
+      </c>
+      <c r="O25" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>200</v>
+      </c>
+      <c r="J26" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" t="s">
+        <v>202</v>
+      </c>
+      <c r="L26" t="s">
+        <v>203</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>204</v>
+      </c>
+      <c r="O26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27" t="s">
+        <v>207</v>
+      </c>
+      <c r="K27" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27" t="s">
+        <v>209</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>211</v>
+      </c>
+      <c r="J28" t="s">
+        <v>212</v>
+      </c>
+      <c r="K28" t="s">
+        <v>213</v>
+      </c>
+      <c r="L28" t="s">
+        <v>214</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>215</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>218</v>
+      </c>
+      <c r="J29" t="s">
+        <v>219</v>
+      </c>
+      <c r="K29" t="s">
+        <v>220</v>
+      </c>
+      <c r="L29" t="s">
+        <v>221</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>222</v>
+      </c>
+      <c r="O29" t="s">
+        <v>86</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>224</v>
+      </c>
+      <c r="J30" t="s">
+        <v>225</v>
+      </c>
+      <c r="K30" t="s">
+        <v>226</v>
+      </c>
+      <c r="L30" t="s">
+        <v>227</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>222</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>229</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>230</v>
+      </c>
+      <c r="J31" t="s">
+        <v>231</v>
+      </c>
+      <c r="K31" t="s">
+        <v>232</v>
+      </c>
+      <c r="L31" t="s">
+        <v>233</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>234</v>
+      </c>
+      <c r="O31" t="s">
+        <v>110</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>235</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>236</v>
+      </c>
+      <c r="J32" t="s">
+        <v>237</v>
+      </c>
+      <c r="K32" t="s">
+        <v>238</v>
+      </c>
+      <c r="L32" t="s">
+        <v>239</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>240</v>
+      </c>
+      <c r="O32" t="s">
+        <v>61</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>241</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>242</v>
+      </c>
+      <c r="J33" t="s">
+        <v>243</v>
+      </c>
+      <c r="K33" t="s">
+        <v>244</v>
+      </c>
+      <c r="L33" t="s">
+        <v>245</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>246</v>
+      </c>
+      <c r="O33" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>247</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>248</v>
+      </c>
+      <c r="J34" t="s">
+        <v>249</v>
+      </c>
+      <c r="K34" t="s">
+        <v>250</v>
+      </c>
+      <c r="L34" t="s">
+        <v>251</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>252</v>
+      </c>
+      <c r="O34" t="s">
+        <v>86</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>254</v>
+      </c>
+      <c r="J35" t="s">
+        <v>255</v>
+      </c>
+      <c r="K35" t="s">
+        <v>256</v>
+      </c>
+      <c r="L35" t="s">
+        <v>257</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>258</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>259</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>260</v>
+      </c>
+      <c r="J36" t="s">
+        <v>261</v>
+      </c>
+      <c r="K36" t="s">
+        <v>262</v>
+      </c>
+      <c r="L36" t="s">
+        <v>263</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>264</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>265</v>
+      </c>
+      <c r="J37" t="s">
+        <v>266</v>
+      </c>
+      <c r="K37" t="s">
+        <v>267</v>
+      </c>
+      <c r="L37" t="s">
+        <v>268</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>269</v>
+      </c>
+      <c r="O37" t="s">
+        <v>86</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>270</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>271</v>
+      </c>
+      <c r="J38" t="s">
+        <v>272</v>
+      </c>
+      <c r="K38" t="s">
+        <v>273</v>
+      </c>
+      <c r="L38" t="s">
+        <v>274</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>275</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>277</v>
+      </c>
+      <c r="J39" t="s">
+        <v>278</v>
+      </c>
+      <c r="K39" t="s">
+        <v>279</v>
+      </c>
+      <c r="L39" t="s">
+        <v>280</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>281</v>
+      </c>
+      <c r="O39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>282</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>283</v>
+      </c>
+      <c r="J40" t="s">
+        <v>284</v>
+      </c>
+      <c r="K40" t="s">
+        <v>285</v>
+      </c>
+      <c r="L40" t="s">
+        <v>286</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>275</v>
+      </c>
+      <c r="O40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>288</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>289</v>
+      </c>
+      <c r="J41" t="s">
+        <v>290</v>
+      </c>
+      <c r="K41" t="s">
+        <v>291</v>
+      </c>
+      <c r="L41" t="s">
+        <v>292</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>293</v>
+      </c>
+      <c r="O41" t="s">
+        <v>294</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>296</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>297</v>
+      </c>
+      <c r="J42" t="s">
+        <v>298</v>
+      </c>
+      <c r="K42" t="s">
+        <v>299</v>
+      </c>
+      <c r="L42" t="s">
+        <v>300</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>301</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>302</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>303</v>
+      </c>
+      <c r="J43" t="s">
+        <v>304</v>
+      </c>
+      <c r="K43" t="s">
+        <v>305</v>
+      </c>
+      <c r="L43" t="s">
+        <v>306</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>307</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>308</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>309</v>
+      </c>
+      <c r="J44" t="s">
+        <v>310</v>
+      </c>
+      <c r="K44" t="s">
+        <v>311</v>
+      </c>
+      <c r="L44" t="s">
+        <v>312</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_265.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_265.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="499">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,57 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/05/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r395462021-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>33412</t>
+  </si>
+  <si>
+    <t>119982</t>
+  </si>
+  <si>
+    <t>395462021</t>
+  </si>
+  <si>
+    <t>07/22/2016</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>I've stayed here before with my family which has worked out really well with separate rooms.  Stayed here on business this time around.  It's walking distance (about 5-10 minutes) from the light rail station which was a big reason why I chose it again.  Doesn't look like they have free breakfast anymore.  Was able to find a nice park/trail to run on.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r321410811-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>321410811</t>
+  </si>
+  <si>
+    <t>10/24/2015</t>
+  </si>
+  <si>
+    <t>Great Value Stay</t>
+  </si>
+  <si>
+    <t>Property Condition: Well maintained older property.  Exterior and interior clean, updated and well maintained.  Staff: Friendly, welcoming, personal and helpful.  Mattress was new and comfortable.  Site signage: Look for "Boston Commons" not "The Commons".  Good value.  Nice hot breakfast; fresh scrambled eggs, sausage, whole grain cereals, yogurt, fresh fruit, breads, fresh waffles, ample eating space.  WiFi a bit slow but ok.  One business center and printer.  Easy access to interstate and surrounding tech parks.  If you're spoiled and need 5 star fancy schmancy, book something else (for a lot more money).  Great restaurants nearby to the south.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r310757174-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
   </si>
   <si>
-    <t>33412</t>
-  </si>
-  <si>
-    <t>119982</t>
-  </si>
-  <si>
     <t>310757174</t>
   </si>
   <si>
@@ -201,9 +240,6 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>I wanted to give this hotel 5 stars, but one thing prevented me from doing that.... It has no hotel shuttle from the airport. Every major hotel in major cities I visit help their guests get to their location. I was disappointed that a high end hotel such as the Hyatt did not. The hotel itself is relatively new, modern and well maintained. I had a nice room, but I did not like having to pay to upgrade the internet. At these prices, it should be included. The bed was very comfortable, the bathroom large and well-maintained and I had a nice view of Eastern Denver. Room service was friendly and tasty. They have a really nice gym and pool and I enjoyed a workout before my event. Overall, a really enjoyable stay.More</t>
   </si>
   <si>
@@ -222,6 +258,61 @@
     <t>I had to come into town for business and was placed in this hotel. I slept so well, which I never do at hotels. The breakfast was great (for continental). You can make pancakes, fresh fruit, sausage, good eggs, oatmeal, 3-4 juice choices. During breakfast, a few of us raved about the mattresses and had to ask for the make. The front office staff and manager are very accommodating. I cannot recall her name...Diane? Very quiet. The downside, no elevators. I needed one and should have requested the first floor. Nothing too fancy , though very comfortable.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r292203287-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>292203287</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>Clean and Friendly</t>
+  </si>
+  <si>
+    <t>When staying in Denver this is our go to place. The accommodations are clean, spacious and nicely decorated. Check in was pleasant and efficient. Not your typical "hotel" breakfast. There was a nice variety (not just carbs.) The complex is quiet yet close to the interstate. We will for sure stay here again when In the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r288715255-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>288715255</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>Nice feel - Nice Bed</t>
+  </si>
+  <si>
+    <t>This was a last minute stop through Denver.
+We actually stayed in this area so we could eat at the Original Pancake House nearby as its our favorite breakfast place in town. 
+This hotel seems to be an apartment or Condo complex turned into hotels, so these felt a bit like your staying at a friends apartment for the night rather than a hotel.
+Every unit has a separate entrance (though not at all like a motel) &amp; each of the 9 or so buildings are 3 stories with outside entrances.  There are no elevators.
+Our 1 bedroom unit had a gas fireplace in the living room and had a dining table and 4 chairs.  There was a pull out couch.  The kichen had a full size Fridge and stove and was supplied with dishes and pans.   There is even a stackable washer and dryer.  The bedroom had a door so you could have privacy from the rest of the unit.  
+We loved the mattress and plan on calling this place to find out the brand so we can get one like it. 
+The bathroom was separate from the bedroom so our teen could get into it without coming into our bedroom. 
+It's in a safe area and i was concerned as we have stayed at extended stay type places before that were seedy and this is very business feeling.
+One thing ...our tile floors did not seem like they...This was a last minute stop through Denver.We actually stayed in this area so we could eat at the Original Pancake House nearby as its our favorite breakfast place in town. This hotel seems to be an apartment or Condo complex turned into hotels, so these felt a bit like your staying at a friends apartment for the night rather than a hotel.Every unit has a separate entrance (though not at all like a motel) &amp; each of the 9 or so buildings are 3 stories with outside entrances.  There are no elevators.Our 1 bedroom unit had a gas fireplace in the living room and had a dining table and 4 chairs.  There was a pull out couch.  The kichen had a full size Fridge and stove and was supplied with dishes and pans.   There is even a stackable washer and dryer.  The bedroom had a door so you could have privacy from the rest of the unit.  We loved the mattress and plan on calling this place to find out the brand so we can get one like it. The bathroom was separate from the bedroom so our teen could get into it without coming into our bedroom. It's in a safe area and i was concerned as we have stayed at extended stay type places before that were seedy and this is very business feeling.One thing ...our tile floors did not seem like they had been mopped ... hope management reads this and takes care of this.  There are lots of areas to walk close by and we will come back and stay for a week in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>This was a last minute stop through Denver.
+We actually stayed in this area so we could eat at the Original Pancake House nearby as its our favorite breakfast place in town. 
+This hotel seems to be an apartment or Condo complex turned into hotels, so these felt a bit like your staying at a friends apartment for the night rather than a hotel.
+Every unit has a separate entrance (though not at all like a motel) &amp; each of the 9 or so buildings are 3 stories with outside entrances.  There are no elevators.
+Our 1 bedroom unit had a gas fireplace in the living room and had a dining table and 4 chairs.  There was a pull out couch.  The kichen had a full size Fridge and stove and was supplied with dishes and pans.   There is even a stackable washer and dryer.  The bedroom had a door so you could have privacy from the rest of the unit.  
+We loved the mattress and plan on calling this place to find out the brand so we can get one like it. 
+The bathroom was separate from the bedroom so our teen could get into it without coming into our bedroom. 
+It's in a safe area and i was concerned as we have stayed at extended stay type places before that were seedy and this is very business feeling.
+One thing ...our tile floors did not seem like they...This was a last minute stop through Denver.We actually stayed in this area so we could eat at the Original Pancake House nearby as its our favorite breakfast place in town. This hotel seems to be an apartment or Condo complex turned into hotels, so these felt a bit like your staying at a friends apartment for the night rather than a hotel.Every unit has a separate entrance (though not at all like a motel) &amp; each of the 9 or so buildings are 3 stories with outside entrances.  There are no elevators.Our 1 bedroom unit had a gas fireplace in the living room and had a dining table and 4 chairs.  There was a pull out couch.  The kichen had a full size Fridge and stove and was supplied with dishes and pans.   There is even a stackable washer and dryer.  The bedroom had a door so you could have privacy from the rest of the unit.  We loved the mattress and plan on calling this place to find out the brand so we can get one like it. The bathroom was separate from the bedroom so our teen could get into it without coming into our bedroom. It's in a safe area and i was concerned as we have stayed at extended stay type places before that were seedy and this is very business feeling.One thing ...our tile floors did not seem like they had been mopped ... hope management reads this and takes care of this.  There are lots of areas to walk close by and we will come back and stay for a week in the future.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r281596564-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -276,21 +367,54 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>First let me say that the bed was excellent.  The closet was great, seemed like something you would want to stay in to live for a while. Now let me tell you, it did not give us what a motel/hotel would have given us.1) No service on the weekend 2) No extra toilet paper, towels or tissues in the roomstayed 4 days, came late Thursday, left Monday AM with ssame towel, sheet, etc.3) For a cold area, the blanket was a little thin4) Missed breakfast since we left early for graduation exercizes both Fri and Sat and no breakfast on Sun! When I asked to get something at all, it was no use- it was all packed up and nothing available.5) Monday AM breakfast- below average egg, toast, packaged pastryIt is very far from anywhere but if you like the train, you can walk 5 blocks and get that into downtown Denver.6) Parking was difficult if you come back late.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r274548620-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>274548620</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>Surprised the Health Department has not shut this place down!</t>
+  </si>
+  <si>
+    <t>The first room we were put in was disgustingly dirty. The chair had buggers on it!. The dishwasher was disgustingly dirty. The shower had hairs in it and pink water mold. Carpets were extremely dirty. Stove was dirty. Banned Cigarette smoke unenforced.I like that unless hades freezes over I will never have to stay here again! The beds in Iraq were better! This place is cheap for a reason! I am surprised the Health Department has not shut this place down!MoreShow less</t>
+  </si>
+  <si>
+    <t>The Commons Hot... a, General Manager at The Commons Hotel &amp; Suites - Denver Tech Center, responded to this reviewResponded May 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2015</t>
+  </si>
+  <si>
+    <t>The first room we were put in was disgustingly dirty. The chair had buggers on it!. The dishwasher was disgustingly dirty. The shower had hairs in it and pink water mold. Carpets were extremely dirty. Stove was dirty. Banned Cigarette smoke unenforced.I like that unless hades freezes over I will never have to stay here again! The beds in Iraq were better! This place is cheap for a reason! I am surprised the Health Department has not shut this place down!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r272611594-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>272611594</t>
+  </si>
+  <si>
+    <t>05/17/2015</t>
+  </si>
+  <si>
+    <t>The Commons, an "uncommon" value!</t>
+  </si>
+  <si>
+    <t>The staff was outstanding, especially the reception area, where  Lina went out of her way to make certain our stay was comfortable.  We arrived late in the day, and she made certain we had a room easy to get to after a day of travel.  The room was well laid out, and homey, with a fireplace and full kitchen.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r272531119-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
   </si>
   <si>
     <t>272531119</t>
   </si>
   <si>
-    <t>05/17/2015</t>
-  </si>
-  <si>
     <t>Not so much</t>
   </si>
   <si>
@@ -328,6 +452,42 @@
   </si>
   <si>
     <t>This is a converted apartment building, but the rooms are just as good as pricier hotels. Very clean and comfortable with a nice bed and tv. Quiet place to stay, and near plenty of shopping and food. Dana, the front desk lady was extremely friendly and helpful!! I'd definitely recommend this place and would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r264720858-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>264720858</t>
+  </si>
+  <si>
+    <t>04/09/2015</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff was very customer service oriented. Very friendly! Room was very comfortable w/ a fireplace!! All appliances in kitchen were in good! Great restaurants within a few miles of hotel. Light rail being so close to hotel was a big plus! It gave us a chance to go n explore downtown Denver! I would most definitely return n recommend it to anyone!! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r262750195-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>262750195</t>
+  </si>
+  <si>
+    <t>03/30/2015</t>
+  </si>
+  <si>
+    <t>Very Impressive</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here recently over the weekend, and we were more than satisfied with out time spent here. First of all the look of the Hotel is wonderful, each floor is shifted what seems like side-ways giving a different feel than I have seen before at other hotels, and the colors created a rustic look that was very appealing to be in. The rooms them selves were very clean and the design was modern contemporary which my boyfriend loves. The area its in is nice for walks and you know that your safe even though you might have not been there before, we walked around and felt completely comfortable. It didn't have smoking rooms but it seems as though most hotels are going that way anyhow, that would be my only complaint is that we had to walk to go smoke. Other than that we completely enjoyed our selves, a great little vacation away.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here recently over the weekend, and we were more than satisfied with out time spent here. First of all the look of the Hotel is wonderful, each floor is shifted what seems like side-ways giving a different feel than I have seen before at other hotels, and the colors created a rustic look that was very appealing to be in. The rooms them selves were very clean and the design was modern contemporary which my boyfriend loves. The area its in is nice for walks and you know that your safe even though you might have not been there before, we walked around and felt completely comfortable. It didn't have smoking rooms but it seems as though most hotels are going that way anyhow, that would be my only complaint is that we had to walk to go smoke. Other than that we completely enjoyed our selves, a great little vacation away.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r260725116-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
@@ -346,9 +506,6 @@
 At Christmas the television quit working and we had to switch rooms.  In the new room the television in the bedroom was not programmed and couldn't be used.  The other had the close captioning on that we couldn't turn off. Then the pilot light went out on the gas fireplace. I called the front desk and she came up with a butane lighter and said the maintenance man was on the other side of town and couldn't come back, but I was welcome to try and light it myself.  The most distrubing thing about that stay was when my wife, while putting her clothes away, opened the dresser drawer and found a plastic bag with ointments and toys from an adult store....My wife and I started staying at The Commos when it was called The Boston Commons. We thought we had found a jewel and extolled the virtues to all our friends. At some point it changed to The Commons.  I believe there was a change of mangement at which point the quality began to decline.  We're always told we're being put in a newly renovated room, but over the last few visits there have been chips it the bathtubs and black grout in the tile and dim lighting throughout.  The pots and pans in the kitchen are never clean any more; they always have to be throughly cleaned to remove crusted on food before we can use them.  At Christmas the television quit working and we had to switch rooms.  In the new room the television in the bedroom was not programmed and couldn't be used.  The other had the close captioning on that we couldn't turn off. Then the pilot light went out on the gas fireplace. I called the front desk and she came up with a butane lighter and said the maintenance man was on the other side of town and couldn't come back, but I was welcome to try and light it myself.  The most distrubing thing about that stay was when my wife, while putting her clothes away, opened the dresser drawer and found a plastic bag with ointments and toys from an adult store.  Obviously house keeping did not thoroughly clean the room.We stayed again this time in March.  I hoped the previous visit was just an anomaly. When we returned to the room,however on the second day, the door to the room was not shut.  Another morning I had to get some work done so I hung the "Do Not Disturb" sign on the door.  At noon when, I left, I called the front desk and told them I was leaving and asked that they clean the room.  When I returned at 6 pm nothing had been touched.  The maintenance and housekeeping staff evidently just don't care. For each of these visits we were given a discount on our bill, but I would have much preferred a clean, well lit, well maintained room.  Unfortunately we will not be returning to The Commons nor can we recommend that anyone else stay there.  It's sad when good things go bad from neglect.MoreShow less</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
@@ -392,6 +549,59 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r250916500-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>250916500</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
+    <t>BAMBOOZLED!!!</t>
+  </si>
+  <si>
+    <t>This is in reference to Wheaton Dane Properties which is who I leased with:
+I RECOMMEND you to not use this property management or you will be making a HUGE Mistake. I would've never started with this company if I weren't completely in destitute for housing.
+I reserved a studio apartment with Wheaton Dane at the Boston Commons and I was not able to really tour the unit thoroughly before booking it, so I wasn't aware of some of the disfunctioning or unrepaired conditions in the room. I have to say I was very disappointed once I started to take notice of these issues. First the carpet sure didn't appear as carpet cause there was absolutely no cushion underneath...It was more like a mat and it also had stains.
+The desk had a sliding table that was broken and the cushion of the right arm of the desk chair was detaching. One of the bedframe posts was broken, and I wasn't offered a new one until two months after initial occupancy. 
+In the bathroom, there was a leakage problem with the bathroom (tub faucet) which also was detaching from the wall, which maintenance did not address the issue until two weeks after occupancy.
+In the window screen, there were tiny holes throughout and the bottom of the screen was detached from the frame.
+I dealt with Internet and Cable malfunctions daily and even internet shutdowns without any notice.
+I had...This is in reference to Wheaton Dane Properties which is who I leased with:I RECOMMEND you to not use this property management or you will be making a HUGE Mistake. I would've never started with this company if I weren't completely in destitute for housing.I reserved a studio apartment with Wheaton Dane at the Boston Commons and I was not able to really tour the unit thoroughly before booking it, so I wasn't aware of some of the disfunctioning or unrepaired conditions in the room. I have to say I was very disappointed once I started to take notice of these issues. First the carpet sure didn't appear as carpet cause there was absolutely no cushion underneath...It was more like a mat and it also had stains.The desk had a sliding table that was broken and the cushion of the right arm of the desk chair was detaching. One of the bedframe posts was broken, and I wasn't offered a new one until two months after initial occupancy. In the bathroom, there was a leakage problem with the bathroom (tub faucet) which also was detaching from the wall, which maintenance did not address the issue until two weeks after occupancy.In the window screen, there were tiny holes throughout and the bottom of the screen was detached from the frame.I dealt with Internet and Cable malfunctions daily and even internet shutdowns without any notice.I had to endure a water shut off without any notice given and the laundry facility being out of service also without any notice.I had an issue one day with the maintenance guy who was addressing a cable/internet issue one evening in my unit and proceeded to sit on my bed...where I rest my head, which I felt was very disrespectful, even after I had already offered him a seat in the chair.Too many issues that I had to endure during my occupancy is why I wouldn't recommend using this property management co when booking/reserving at Boston Commons.The exterior of the property is so inviting, where I was under the impression, I would have no complaints, but obviously that didn't turn out to be the case which is why I felt BAMBOOZLED!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>This is in reference to Wheaton Dane Properties which is who I leased with:
+I RECOMMEND you to not use this property management or you will be making a HUGE Mistake. I would've never started with this company if I weren't completely in destitute for housing.
+I reserved a studio apartment with Wheaton Dane at the Boston Commons and I was not able to really tour the unit thoroughly before booking it, so I wasn't aware of some of the disfunctioning or unrepaired conditions in the room. I have to say I was very disappointed once I started to take notice of these issues. First the carpet sure didn't appear as carpet cause there was absolutely no cushion underneath...It was more like a mat and it also had stains.
+The desk had a sliding table that was broken and the cushion of the right arm of the desk chair was detaching. One of the bedframe posts was broken, and I wasn't offered a new one until two months after initial occupancy. 
+In the bathroom, there was a leakage problem with the bathroom (tub faucet) which also was detaching from the wall, which maintenance did not address the issue until two weeks after occupancy.
+In the window screen, there were tiny holes throughout and the bottom of the screen was detached from the frame.
+I dealt with Internet and Cable malfunctions daily and even internet shutdowns without any notice.
+I had...This is in reference to Wheaton Dane Properties which is who I leased with:I RECOMMEND you to not use this property management or you will be making a HUGE Mistake. I would've never started with this company if I weren't completely in destitute for housing.I reserved a studio apartment with Wheaton Dane at the Boston Commons and I was not able to really tour the unit thoroughly before booking it, so I wasn't aware of some of the disfunctioning or unrepaired conditions in the room. I have to say I was very disappointed once I started to take notice of these issues. First the carpet sure didn't appear as carpet cause there was absolutely no cushion underneath...It was more like a mat and it also had stains.The desk had a sliding table that was broken and the cushion of the right arm of the desk chair was detaching. One of the bedframe posts was broken, and I wasn't offered a new one until two months after initial occupancy. In the bathroom, there was a leakage problem with the bathroom (tub faucet) which also was detaching from the wall, which maintenance did not address the issue until two weeks after occupancy.In the window screen, there were tiny holes throughout and the bottom of the screen was detached from the frame.I dealt with Internet and Cable malfunctions daily and even internet shutdowns without any notice.I had to endure a water shut off without any notice given and the laundry facility being out of service also without any notice.I had an issue one day with the maintenance guy who was addressing a cable/internet issue one evening in my unit and proceeded to sit on my bed...where I rest my head, which I felt was very disrespectful, even after I had already offered him a seat in the chair.Too many issues that I had to endure during my occupancy is why I wouldn't recommend using this property management co when booking/reserving at Boston Commons.The exterior of the property is so inviting, where I was under the impression, I would have no complaints, but obviously that didn't turn out to be the case which is why I felt BAMBOOZLED!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r249055835-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>249055835</t>
+  </si>
+  <si>
+    <t>01/12/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>The room was clean and well decorated. The front desk lady was extremely nice. Only problem was comforter was a little dirty. FYI hot breakfast Mon-Fri, Continental breakfast Sat, NO breakfast Sunday!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r248661885-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -443,6 +653,50 @@
     <t>I booked a room via Priceline for a cancer surgery.  Arrived the night before my surgery at 9:30 pm. The door was locked and the place just looked strange. A VERY rude front desk clerk told me that they were sold out and they had no rooms for me. They had cancelled all Priceline reservations that morning, although they never told Priceline. This lady was terrible beyond belief. Thankfully Priceline booked me in to the Hyatt Place Denver South which is amazing. Stay there instead I definately dodged a bullet</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r224934937-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>224934937</t>
+  </si>
+  <si>
+    <t>08/27/2014</t>
+  </si>
+  <si>
+    <t>Lena is the Best</t>
+  </si>
+  <si>
+    <t>Let's start by saying this is a smoke free hotel and should be posted on any webpage the Hotel uses to do booking.Second manager funny guy, to tell you the truth! He really doesn't have much customer service skills. On the other hand Lena was great, I don't understand why she isn't the real manager. Over all the suit was oh k but wow what's up with the old school box tv. It makes the room look cheap. I guess that the owner really doesn't care about Hotel or guest. However Lena is the best person this hotel has hired. Lena you rock. Oh yea to the owner don't be cheap you have a Goldmine with this hotel and Lena as a worker.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Let's start by saying this is a smoke free hotel and should be posted on any webpage the Hotel uses to do booking.Second manager funny guy, to tell you the truth! He really doesn't have much customer service skills. On the other hand Lena was great, I don't understand why she isn't the real manager. Over all the suit was oh k but wow what's up with the old school box tv. It makes the room look cheap. I guess that the owner really doesn't care about Hotel or guest. However Lena is the best person this hotel has hired. Lena you rock. Oh yea to the owner don't be cheap you have a Goldmine with this hotel and Lena as a worker.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r224580084-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>224580084</t>
+  </si>
+  <si>
+    <t>08/26/2014</t>
+  </si>
+  <si>
+    <t>Won't return....</t>
+  </si>
+  <si>
+    <t>When we first stayed there, it was a great experience. I have to go to Denver for medical reasons, and that day I needed some TLC. The moment I crawled up on that very firm, king-sized bed I was in love with that bed. The room was nice and comfortable and the rates were reasonable. The hotel is huge---a series of buildings and is always full. On subsequent vists we found our room given away, rates weren't what was quoted, and not all the rooms have been remodeled and include the new, comfortable bed. Customer service became almost non-existant because the lower rates kept them booked up. We'd have to call a couple of times just to make sure I got one of the newer beds for my back and we never knew until we got there if that was going to happen.
+The final straw came when we booked one of their suites for two nights so we could enjoy the fireplace. We asked over and over if it was a newly remodeled room with a new bed, and the manager himself assured us it was. Well, it wasn't. The bed was horrible, I had to move to the couch in the living room, which wasn't any better, and the next day, the manager refused to move us to another room with one of the new beds, so we checked out and went to the lovely Holiday Inn Express...When we first stayed there, it was a great experience. I have to go to Denver for medical reasons, and that day I needed some TLC. The moment I crawled up on that very firm, king-sized bed I was in love with that bed. The room was nice and comfortable and the rates were reasonable. The hotel is huge---a series of buildings and is always full. On subsequent vists we found our room given away, rates weren't what was quoted, and not all the rooms have been remodeled and include the new, comfortable bed. Customer service became almost non-existant because the lower rates kept them booked up. We'd have to call a couple of times just to make sure I got one of the newer beds for my back and we never knew until we got there if that was going to happen.The final straw came when we booked one of their suites for two nights so we could enjoy the fireplace. We asked over and over if it was a newly remodeled room with a new bed, and the manager himself assured us it was. Well, it wasn't. The bed was horrible, I had to move to the couch in the living room, which wasn't any better, and the next day, the manager refused to move us to another room with one of the new beds, so we checked out and went to the lovely Holiday Inn Express down the road.As an aside, this particular hotel, as large as it is, has not one handicap room, nor any handicap parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>When we first stayed there, it was a great experience. I have to go to Denver for medical reasons, and that day I needed some TLC. The moment I crawled up on that very firm, king-sized bed I was in love with that bed. The room was nice and comfortable and the rates were reasonable. The hotel is huge---a series of buildings and is always full. On subsequent vists we found our room given away, rates weren't what was quoted, and not all the rooms have been remodeled and include the new, comfortable bed. Customer service became almost non-existant because the lower rates kept them booked up. We'd have to call a couple of times just to make sure I got one of the newer beds for my back and we never knew until we got there if that was going to happen.
+The final straw came when we booked one of their suites for two nights so we could enjoy the fireplace. We asked over and over if it was a newly remodeled room with a new bed, and the manager himself assured us it was. Well, it wasn't. The bed was horrible, I had to move to the couch in the living room, which wasn't any better, and the next day, the manager refused to move us to another room with one of the new beds, so we checked out and went to the lovely Holiday Inn Express...When we first stayed there, it was a great experience. I have to go to Denver for medical reasons, and that day I needed some TLC. The moment I crawled up on that very firm, king-sized bed I was in love with that bed. The room was nice and comfortable and the rates were reasonable. The hotel is huge---a series of buildings and is always full. On subsequent vists we found our room given away, rates weren't what was quoted, and not all the rooms have been remodeled and include the new, comfortable bed. Customer service became almost non-existant because the lower rates kept them booked up. We'd have to call a couple of times just to make sure I got one of the newer beds for my back and we never knew until we got there if that was going to happen.The final straw came when we booked one of their suites for two nights so we could enjoy the fireplace. We asked over and over if it was a newly remodeled room with a new bed, and the manager himself assured us it was. Well, it wasn't. The bed was horrible, I had to move to the couch in the living room, which wasn't any better, and the next day, the manager refused to move us to another room with one of the new beds, so we checked out and went to the lovely Holiday Inn Express down the road.As an aside, this particular hotel, as large as it is, has not one handicap room, nor any handicap parking.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r224333603-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -458,9 +712,6 @@
     <t xml:space="preserve">We recently stayed overnight at this hotel and found the staff amazingly accommodating.  We were late getting in for a concert and they were kind enough to drop us off. The little gal kept us entertained all the way to our venue... additionally she was helpful on restaurants and shopping in the area. We greatly appreciated the staffs willingness to go the extra mile! Our room was comfortable and reasonably priced. Overall a very nice stay. </t>
   </si>
   <si>
-    <t>August 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r222288068-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -497,6 +748,42 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r212823059-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>212823059</t>
+  </si>
+  <si>
+    <t>06/30/2014</t>
+  </si>
+  <si>
+    <t>I did not even stay but they charged my credit card for the room and won't give my money back!</t>
+  </si>
+  <si>
+    <t>I booked a room online with this hotel, my party and I decided to stay somewhere else.The day I arrived at the hotel of our choice my card was declined.So I went to the app on my phone that tells you the amount of funds you have and it said the Commons had a pending charge putting my account into insufficient funds. I called my card company they said only the hotel could fix this so I called them next.They told me manager John Latel was the only person who could fix this issue.Everyday I called to fix this to get my money back.Mr.Latel never returns phone calls, has made no effort to refund my money for a hotel room that I never stayed in. His staff will tell you he works Mon-Fri 8-ish to 4-5pm but if you call weekdays (everyday) during those hours he will never take your call or they will tell you he is no there!They told me if I wanted to stay I would have to play more money!! I'm a nice a kind woman who believes in karma it hurts that they made no effort or arrangements to try and help me especially after they took my money! All I am asking for is a refund I never stayed at their hotel and the way they conduct business is just awful!MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked a room online with this hotel, my party and I decided to stay somewhere else.The day I arrived at the hotel of our choice my card was declined.So I went to the app on my phone that tells you the amount of funds you have and it said the Commons had a pending charge putting my account into insufficient funds. I called my card company they said only the hotel could fix this so I called them next.They told me manager John Latel was the only person who could fix this issue.Everyday I called to fix this to get my money back.Mr.Latel never returns phone calls, has made no effort to refund my money for a hotel room that I never stayed in. His staff will tell you he works Mon-Fri 8-ish to 4-5pm but if you call weekdays (everyday) during those hours he will never take your call or they will tell you he is no there!They told me if I wanted to stay I would have to play more money!! I'm a nice a kind woman who believes in karma it hurts that they made no effort or arrangements to try and help me especially after they took my money! All I am asking for is a refund I never stayed at their hotel and the way they conduct business is just awful!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r209000695-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>209000695</t>
+  </si>
+  <si>
+    <t>06/05/2014</t>
+  </si>
+  <si>
+    <t>did not enjoy the stay : (</t>
+  </si>
+  <si>
+    <t>I am now on my third day here, and if I knew then what I know now, I would have picked another hotel.  every day from around 6:30 until after midnight it sounds like kids jumping and running upstairs from me. they also rent these to live in. I sleep very little, and woke up last nite to get on line, it seems they changed the password, wish I had known! also the internet is quite slow. I am in a suite that had a fully stocked kitchen, so it said, NOT!  there was dish wear for 3, no bake wear at all and no bowls (except cereal bowls), and the knife was so dull I had to buy one. and to top it off I am next door to the hotel laundry room, and housekeeping supply room.  employees in and out, laughing and talking ALL DAY LONG. but I will give credit where it is due...the breakfast was quite good...so if you wanna come for breakfast, this is the place!MoreShow less</t>
+  </si>
+  <si>
+    <t>I am now on my third day here, and if I knew then what I know now, I would have picked another hotel.  every day from around 6:30 until after midnight it sounds like kids jumping and running upstairs from me. they also rent these to live in. I sleep very little, and woke up last nite to get on line, it seems they changed the password, wish I had known! also the internet is quite slow. I am in a suite that had a fully stocked kitchen, so it said, NOT!  there was dish wear for 3, no bake wear at all and no bowls (except cereal bowls), and the knife was so dull I had to buy one. and to top it off I am next door to the hotel laundry room, and housekeeping supply room.  employees in and out, laughing and talking ALL DAY LONG. but I will give credit where it is due...the breakfast was quite good...so if you wanna come for breakfast, this is the place!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r208063669-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -551,10 +838,49 @@
     <t>We stayed here for a Saturday and Sunday in February.  After doing some research I made sure to request a newly remodeled unit and it looked just like the pictures.  It appears others that stay in this complex have differing experiences depending on what room they get.  We had great, friendly service from the front desk.  The beds were comfortable, the fireplace and appliances all worked.  The bathroom and kitchen while remodeled still looked a little tired.  The fixtures were quite dated and the appliances a little on the old side (but not too bad).  The bedrooms and living/dining areas are great.  New bedding, flat panel TV's and furniture.  Bottom line is that I would stay here again as long as I could verify what room I was getting.  The price is very resonable and the accommodations, while not top of the line, are comfortable and clean.MoreShow less</t>
   </si>
   <si>
-    <t>February 2014</t>
-  </si>
-  <si>
     <t>We stayed here for a Saturday and Sunday in February.  After doing some research I made sure to request a newly remodeled unit and it looked just like the pictures.  It appears others that stay in this complex have differing experiences depending on what room they get.  We had great, friendly service from the front desk.  The beds were comfortable, the fireplace and appliances all worked.  The bathroom and kitchen while remodeled still looked a little tired.  The fixtures were quite dated and the appliances a little on the old side (but not too bad).  The bedrooms and living/dining areas are great.  New bedding, flat panel TV's and furniture.  Bottom line is that I would stay here again as long as I could verify what room I was getting.  The price is very resonable and the accommodations, while not top of the line, are comfortable and clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r192421015-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>192421015</t>
+  </si>
+  <si>
+    <t>01/28/2014</t>
+  </si>
+  <si>
+    <t>Its an old, small apartment.</t>
+  </si>
+  <si>
+    <t>This place is just an old apartment complex that someone realized could make more money if they furnished it and called it a hotel rather than a furnished apartment. I am sorely disappointed! The fireplace doesn't work, the blinds don't close all the way, the couch is so old it scratches you to sit on it, the bathtub has a number of black spots, it is either dirty or missing chunks/peeling, hairs on the bed/comforter... How or why people are giving this place good reviews is beyond me! If you are looking for an old, ugly but furnished apt, fine, but compared to nice hotels, this place is a shame. The only good thing about it is its proximity to the Denver Tech Center.  Service? missing pillows, sheets... went to get some, no workers there, we had to come back again later, they said some stuff they had, some was "on order" ... Suffice To say, we'll never be staying here again. And frankly I cant wait to leave. My kid asked if we could please leave within 5 minutes of being here.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>This place is just an old apartment complex that someone realized could make more money if they furnished it and called it a hotel rather than a furnished apartment. I am sorely disappointed! The fireplace doesn't work, the blinds don't close all the way, the couch is so old it scratches you to sit on it, the bathtub has a number of black spots, it is either dirty or missing chunks/peeling, hairs on the bed/comforter... How or why people are giving this place good reviews is beyond me! If you are looking for an old, ugly but furnished apt, fine, but compared to nice hotels, this place is a shame. The only good thing about it is its proximity to the Denver Tech Center.  Service? missing pillows, sheets... went to get some, no workers there, we had to come back again later, they said some stuff they had, some was "on order" ... Suffice To say, we'll never be staying here again. And frankly I cant wait to leave. My kid asked if we could please leave within 5 minutes of being here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r184434472-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>184434472</t>
+  </si>
+  <si>
+    <t>11/11/2013</t>
+  </si>
+  <si>
+    <t>Fabulous for Extended Stay</t>
+  </si>
+  <si>
+    <t>After a horrible extended stay hotel experience at a national chain, I was leary to try another. While in between houses, we needed a reliable, short term place for a minor surgery convalesce. The place was very well furnished (had a king 1 bedroom in building 2) and came with free breakfast and wifi, and daily housekeeping during the week. I found the staff very accommodating and friendly, although austere - they do a lot with very few resources. The location is great and within 1/2 mile of light rail - and they offer free transport. Gas fireplace, flat panel tv with numerous channels, full kitchen and dishwasher, double closets in the bedroom plus an additional flat panel tv in the bedroom with its own HD cable box. I will stay there again when in the Denver metro area. Thanks to front desk agent Dana for all her extra care and attention!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>After a horrible extended stay hotel experience at a national chain, I was leary to try another. While in between houses, we needed a reliable, short term place for a minor surgery convalesce. The place was very well furnished (had a king 1 bedroom in building 2) and came with free breakfast and wifi, and daily housekeeping during the week. I found the staff very accommodating and friendly, although austere - they do a lot with very few resources. The location is great and within 1/2 mile of light rail - and they offer free transport. Gas fireplace, flat panel tv with numerous channels, full kitchen and dishwasher, double closets in the bedroom plus an additional flat panel tv in the bedroom with its own HD cable box. I will stay there again when in the Denver metro area. Thanks to front desk agent Dana for all her extra care and attention!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r178950038-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
@@ -631,6 +957,39 @@
 In the middle of my stay I was getting ready for a meeting and received a call by from the front desk saying that they had previously rented my room to a VIP and that I would need to vacate to another room on the third floor (with old carpet and an old televison).  After a lot of back and forth I agreed and was 40 minutes late for my meeting partially because the door to the new room had a door knob that stuck and trapped me in the room.  I was literally stuck inside the room until someone from the staff came an opened the door from the outside.  It happened twice and each time the staff...I had the misfortune of staying here for a week this past summer.  The room was very nice, recently re done with new furniture, carpet, paint and an extra large flat screen.  I booked through Priceline and the hotel billed itself as pet friendly.  However they only accept dogs at an extra charge.I listened to the occupants of the room next door get serviced by a couple of professionals who I later had the pleasure of meeting in the hall.  They actually were quite friendly.  I wouldn't have much cared but I was on a business call at the time and hoped that the party on the other end of the line couldn't hear what I was hearing quite clearly.In the middle of my stay I was getting ready for a meeting and received a call by from the front desk saying that they had previously rented my room to a VIP and that I would need to vacate to another room on the third floor (with old carpet and an old televison).  After a lot of back and forth I agreed and was 40 minutes late for my meeting partially because the door to the new room had a door knob that stuck and trapped me in the room.  I was literally stuck inside the room until someone from the staff came an opened the door from the outside.  It happened twice and each time the staff acted as though it was my imagination or fault.  In reality it's a huge fire hazard.  No one really gave a damn about that, they just acted inconvenienced.  I think this attitude comes from the general manager, named John.  Much of the staff mentioned him by name and seemed to dread his arrival.  I asked to be given a ride to the post office by their shuttle service and upon leaving found that I had been left there.  I called the hotel and the front desk person (same person who left me there) would not answer the phone.  I didn't know if she was still sitting in the parking lot and just wanted to let her know that I was walking back to the hotel (in heels no less).  It wasn't until I called from a different phone number that she answered on the first or second ring.  Truly unbelievable...  On check out I was told I owed for pet fees.  I'd been there for nearly a week and paid for a few days at a time so where did these fees suddenly come from?  I couldn't get out of this place fast enough and checked into another hotel while looking for a permanent place to live.  Upon checking in to my new accomodations I was greeted by the hotel manager saying that John had called her and told her that I was skipped out on hotel bills.  ???  Just then the same shuttle driver who left me at the post office walked in to the lobby of the new hotel, snapped her gum at me and told me to hurry and get my luggage because she had to get back.  The only time my stay at Commons was peaceful was over the weekend when John et al were not there and there was one person there running the whole show.  She actually provided excellent customer service to several guests each time I was sitting in the lobby.  Things ran smoothly and there was no drama.  By the end of the weekend I could see how unfair it was to leave one person running the hotel and she worked the entire weekend non stop.  Unbelievable.  This place is probably okay for a quick, cheap overnight stay as long as you don't get stuck in the room with semi functioning door knob and you're there on the weekend.  Otherwise there are many other places close by that do a much better job.  Avoid the powdered eggs at the free breakfast.  They taste like...powder.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r167119322-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>167119322</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>Well worth it</t>
+  </si>
+  <si>
+    <t>Stayed here for 12 days and it was well worrh it.Breakfast is good and different every day,price for Denver is spectacular and the staff is outstanding.The only downfall is that the internet connection is weak so if you are here for business this can be a problem. I have booked for next year.P.S There is not any cleaning service on Saturday and Sunday, but for the price I can put up with that.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r163040350-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>163040350</t>
+  </si>
+  <si>
+    <t>06/04/2013</t>
+  </si>
+  <si>
+    <t>Please read</t>
+  </si>
+  <si>
+    <t>Almost everything this so called hotel advertises is a LIE.The "hotel" is really just rooms located within an apartment complex. This creates a lot of confusion &amp; you will notice that some of your "neighbors" really do live here.Noise carries easily. You'll be able to hear EVERY little thing. Unlike a traditional hotel you can't really do much about it as some of the occupants live here &amp; are not associated with the "hotel". The front desk closes around 8pm. Sure you can call the after hours number but they won't do anything.Some of the rooms are remodeled. Some aren't. Theres no way to tell what your getting when you book. I've talked to people who have "nice new rooms with beautiful decor" &amp; others "who had to deal with horrible smells &amp; old, dirty rooms" The hot tub is broken &amp; has been for years according to an employee. They dont plan to fix it either.While the people that work here are nice, the place is severely understaffed. They seem overwhelmed so good luck getting help if you need it. Its not their fault, but I'm assuming poor management choices.MoreShow less</t>
+  </si>
+  <si>
+    <t>Almost everything this so called hotel advertises is a LIE.The "hotel" is really just rooms located within an apartment complex. This creates a lot of confusion &amp; you will notice that some of your "neighbors" really do live here.Noise carries easily. You'll be able to hear EVERY little thing. Unlike a traditional hotel you can't really do much about it as some of the occupants live here &amp; are not associated with the "hotel". The front desk closes around 8pm. Sure you can call the after hours number but they won't do anything.Some of the rooms are remodeled. Some aren't. Theres no way to tell what your getting when you book. I've talked to people who have "nice new rooms with beautiful decor" &amp; others "who had to deal with horrible smells &amp; old, dirty rooms" The hot tub is broken &amp; has been for years according to an employee. They dont plan to fix it either.While the people that work here are nice, the place is severely understaffed. They seem overwhelmed so good luck getting help if you need it. Its not their fault, but I'm assuming poor management choices.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r162563348-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -685,6 +1044,49 @@
     <t>We stayed here for 8 days for a medical stay.  We wanted to have housing that had a separate bedroom and living area because we both planned to work from our laptops while in the area.  There are rooms that have been updated and rooms that have not.  The night before arrival, I called the front desk to ensure that we had an upgraded room.  Upon arrival, we were situated in building 5, floor 3.  We lugged our luggage up the three flights and found a "non" updated room.  There was an old fashioned 32" box tv on a 1980's wooden end table.  The place was very dated.  We immediately called the front desk to ask for a room change.  Within minutes the front desk attendant met us and escorted us down one level to a new room.  The new room was a little better.  There was a flat screen tv but that was probably the only thing that was updated.  The couch and chair were comfortable however they were worn and had a couple of holes in them.  The kitchen cupboards were from the 1980's and the formica countertops had wear &amp; tear.  The bathroom caulking had mold and the corners of bathroom were dusty &amp; dirty.  The room was not horrible it was just "ho-hum".  The price of the 1 bedroom suite per night was $72.  This was an excellent deal.  What we like the best about Boston...We stayed here for 8 days for a medical stay.  We wanted to have housing that had a separate bedroom and living area because we both planned to work from our laptops while in the area.  There are rooms that have been updated and rooms that have not.  The night before arrival, I called the front desk to ensure that we had an upgraded room.  Upon arrival, we were situated in building 5, floor 3.  We lugged our luggage up the three flights and found a "non" updated room.  There was an old fashioned 32" box tv on a 1980's wooden end table.  The place was very dated.  We immediately called the front desk to ask for a room change.  Within minutes the front desk attendant met us and escorted us down one level to a new room.  The new room was a little better.  There was a flat screen tv but that was probably the only thing that was updated.  The couch and chair were comfortable however they were worn and had a couple of holes in them.  The kitchen cupboards were from the 1980's and the formica countertops had wear &amp; tear.  The bathroom caulking had mold and the corners of bathroom were dusty &amp; dirty.  The room was not horrible it was just "ho-hum".  The price of the 1 bedroom suite per night was $72.  This was an excellent deal.  What we like the best about Boston Commons was the location.  It is close to a lot of great restaurants!  They have a hot breakfast located in the clubhouse every morning except for Sunday.  I would stay here again knowing that I don't have very high expectations and the price was good.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r142528862-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>142528862</t>
+  </si>
+  <si>
+    <t>10/10/2012</t>
+  </si>
+  <si>
+    <t>Good value but lots of problems</t>
+  </si>
+  <si>
+    <t>I stayed here for two months on a business trip.   Overall, the value is good and the front desk staff is pleasant.  However, because the complex is split haphazardly between owner-occupied units and hotel apartment units, there is nobody responsible for overall quality control, which results in a lot of advertised features not being available:- Internet is almost useless, at many times of day it simply doesn't work- Hot tub is out of order with no plans to fix- Exercise room is tiny and equipment broken and unmaintained- Ants in rooms (with kitchens) - staff took care of it, but it was awful while it lasted- Doors have no seals so cigarette smoke and lots of noise penetrate from hallway or adjoining suite- Bathrooms are dated and somewhat moldy- Dangerous wear on sidewalks, stairs, and parking lot- Leaking roof in common area- Breakfast is boring and not even served on SundayDespite this it is still possible to have a good night here at a reasonable price.  But don't expect it to be like a real hotel, more like borrowing a friend's apartment.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>I stayed here for two months on a business trip.   Overall, the value is good and the front desk staff is pleasant.  However, because the complex is split haphazardly between owner-occupied units and hotel apartment units, there is nobody responsible for overall quality control, which results in a lot of advertised features not being available:- Internet is almost useless, at many times of day it simply doesn't work- Hot tub is out of order with no plans to fix- Exercise room is tiny and equipment broken and unmaintained- Ants in rooms (with kitchens) - staff took care of it, but it was awful while it lasted- Doors have no seals so cigarette smoke and lots of noise penetrate from hallway or adjoining suite- Bathrooms are dated and somewhat moldy- Dangerous wear on sidewalks, stairs, and parking lot- Leaking roof in common area- Breakfast is boring and not even served on SundayDespite this it is still possible to have a good night here at a reasonable price.  But don't expect it to be like a real hotel, more like borrowing a friend's apartment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r142322742-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>142322742</t>
+  </si>
+  <si>
+    <t>10/08/2012</t>
+  </si>
+  <si>
+    <t>Unclean, that's all there is to know...</t>
+  </si>
+  <si>
+    <t>Arrived 10/3 and had to carry three sets of luggage to the third floor.  Got to Room 1325 and the door does not sit properly in the jam, so I have to kick it open.  No pillow for my son who was occupying the pull out sofa, I called down to the desk and was told they had no more pillows.
+10/4, my wife goes to use a hand towel and there is "matter" stuck to the towel, this was on the inside of the hand towel that had been on the rack.  My wife went to use another hand towel with the same results.  I brought them to the manager's attention and he shrugs it off saying "oh, well.  Sorry".  I try to go to breakfast after being told it runs to 9:30 and it is being cleaned up, when I mention what I was told, the person cleaning up says, "we close at 9", with a major attitude.
+10/5, we leave to go sight seeing and come back to a room that has not been cleaned.  All of the garbages are full, all of the linens from that morning are still on the floor along with the sheets from the sofa bed.  I walk to the lobby and no one is there, I call the number and am told by the person answering the phone she is out picking some one up.  I wait for her return and...Arrived 10/3 and had to carry three sets of luggage to the third floor.  Got to Room 1325 and the door does not sit properly in the jam, so I have to kick it open.  No pillow for my son who was occupying the pull out sofa, I called down to the desk and was told they had no more pillows.10/4, my wife goes to use a hand towel and there is "matter" stuck to the towel, this was on the inside of the hand towel that had been on the rack.  My wife went to use another hand towel with the same results.  I brought them to the manager's attention and he shrugs it off saying "oh, well.  Sorry".  I try to go to breakfast after being told it runs to 9:30 and it is being cleaned up, when I mention what I was told, the person cleaning up says, "we close at 9", with a major attitude.10/5, we leave to go sight seeing and come back to a room that has not been cleaned.  All of the garbages are full, all of the linens from that morning are still on the floor along with the sheets from the sofa bed.  I walk to the lobby and no one is there, I call the number and am told by the person answering the phone she is out picking some one up.  I wait for her return and get the life story of the Commons, I get clean linens and no one can explain why housekeeping didn't clean my room.I sent an email to the Commons that night and I have heard nothing from the management of this facility.  If this is how a "Corporate" hotel is run, I would rather stay at a Motel 6.MoreShow less</t>
+  </si>
+  <si>
+    <t>Arrived 10/3 and had to carry three sets of luggage to the third floor.  Got to Room 1325 and the door does not sit properly in the jam, so I have to kick it open.  No pillow for my son who was occupying the pull out sofa, I called down to the desk and was told they had no more pillows.
+10/4, my wife goes to use a hand towel and there is "matter" stuck to the towel, this was on the inside of the hand towel that had been on the rack.  My wife went to use another hand towel with the same results.  I brought them to the manager's attention and he shrugs it off saying "oh, well.  Sorry".  I try to go to breakfast after being told it runs to 9:30 and it is being cleaned up, when I mention what I was told, the person cleaning up says, "we close at 9", with a major attitude.
+10/5, we leave to go sight seeing and come back to a room that has not been cleaned.  All of the garbages are full, all of the linens from that morning are still on the floor along with the sheets from the sofa bed.  I walk to the lobby and no one is there, I call the number and am told by the person answering the phone she is out picking some one up.  I wait for her return and...Arrived 10/3 and had to carry three sets of luggage to the third floor.  Got to Room 1325 and the door does not sit properly in the jam, so I have to kick it open.  No pillow for my son who was occupying the pull out sofa, I called down to the desk and was told they had no more pillows.10/4, my wife goes to use a hand towel and there is "matter" stuck to the towel, this was on the inside of the hand towel that had been on the rack.  My wife went to use another hand towel with the same results.  I brought them to the manager's attention and he shrugs it off saying "oh, well.  Sorry".  I try to go to breakfast after being told it runs to 9:30 and it is being cleaned up, when I mention what I was told, the person cleaning up says, "we close at 9", with a major attitude.10/5, we leave to go sight seeing and come back to a room that has not been cleaned.  All of the garbages are full, all of the linens from that morning are still on the floor along with the sheets from the sofa bed.  I walk to the lobby and no one is there, I call the number and am told by the person answering the phone she is out picking some one up.  I wait for her return and get the life story of the Commons, I get clean linens and no one can explain why housekeeping didn't clean my room.I sent an email to the Commons that night and I have heard nothing from the management of this facility.  If this is how a "Corporate" hotel is run, I would rather stay at a Motel 6.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r138999438-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -739,6 +1141,52 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r134356970-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>134356970</t>
+  </si>
+  <si>
+    <t>07/14/2012</t>
+  </si>
+  <si>
+    <t>Great place to stay when visiting the Denver area</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights in June 2012 as part of a road trip. We selected  this accommodation on the strength of trip advisor reviews and were extremely happy with our choice. We booked direct with the hotel and paid £54 per night for a fully equipped one bedroom apartment including all taxes. This was outstanding value for money.
+The furniture/ decor in the apartment was perhaps a little dated but it was fully equipped including full hob/oven, large fridge freezer, washer/ dryer and wireless internet.  A large gas barbecue (plumbed into the mains - no messing about with propane bottles!) was adjacent to our building and another next to the pool area.  
+An excellent breakfast including hot items was provided in 'the clubhouse' above the reception area.
+The purpose of our stay in this area was to visit Denver and this was easily done via the light rail station with the Arapahoe station a short walk away (approx 7 to 8 mins).
+The light rail whisked us into the centre of Denver in around 30 minutes for the princely sum of $8 allowing us to leave the rental car behind and not mess around with expensive parking. This may not be everyone's cup of tea but I can assure it was an easy way to visit the city.
+We had a very enjoyable stay at The Boston Commons hotel and if we ever visit the Denver area again we...Stayed here for 3 nights in June 2012 as part of a road trip. We selected  this accommodation on the strength of trip advisor reviews and were extremely happy with our choice. We booked direct with the hotel and paid £54 per night for a fully equipped one bedroom apartment including all taxes. This was outstanding value for money.The furniture/ decor in the apartment was perhaps a little dated but it was fully equipped including full hob/oven, large fridge freezer, washer/ dryer and wireless internet.  A large gas barbecue (plumbed into the mains - no messing about with propane bottles!) was adjacent to our building and another next to the pool area.  An excellent breakfast including hot items was provided in 'the clubhouse' above the reception area.The purpose of our stay in this area was to visit Denver and this was easily done via the light rail station with the Arapahoe station a short walk away (approx 7 to 8 mins).The light rail whisked us into the centre of Denver in around 30 minutes for the princely sum of $8 allowing us to leave the rental car behind and not mess around with expensive parking. This may not be everyone's cup of tea but I can assure it was an easy way to visit the city.We had a very enjoyable stay at The Boston Commons hotel and if we ever visit the Denver area again we will look to stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights in June 2012 as part of a road trip. We selected  this accommodation on the strength of trip advisor reviews and were extremely happy with our choice. We booked direct with the hotel and paid £54 per night for a fully equipped one bedroom apartment including all taxes. This was outstanding value for money.
+The furniture/ decor in the apartment was perhaps a little dated but it was fully equipped including full hob/oven, large fridge freezer, washer/ dryer and wireless internet.  A large gas barbecue (plumbed into the mains - no messing about with propane bottles!) was adjacent to our building and another next to the pool area.  
+An excellent breakfast including hot items was provided in 'the clubhouse' above the reception area.
+The purpose of our stay in this area was to visit Denver and this was easily done via the light rail station with the Arapahoe station a short walk away (approx 7 to 8 mins).
+The light rail whisked us into the centre of Denver in around 30 minutes for the princely sum of $8 allowing us to leave the rental car behind and not mess around with expensive parking. This may not be everyone's cup of tea but I can assure it was an easy way to visit the city.
+We had a very enjoyable stay at The Boston Commons hotel and if we ever visit the Denver area again we...Stayed here for 3 nights in June 2012 as part of a road trip. We selected  this accommodation on the strength of trip advisor reviews and were extremely happy with our choice. We booked direct with the hotel and paid £54 per night for a fully equipped one bedroom apartment including all taxes. This was outstanding value for money.The furniture/ decor in the apartment was perhaps a little dated but it was fully equipped including full hob/oven, large fridge freezer, washer/ dryer and wireless internet.  A large gas barbecue (plumbed into the mains - no messing about with propane bottles!) was adjacent to our building and another next to the pool area.  An excellent breakfast including hot items was provided in 'the clubhouse' above the reception area.The purpose of our stay in this area was to visit Denver and this was easily done via the light rail station with the Arapahoe station a short walk away (approx 7 to 8 mins).The light rail whisked us into the centre of Denver in around 30 minutes for the princely sum of $8 allowing us to leave the rental car behind and not mess around with expensive parking. This may not be everyone's cup of tea but I can assure it was an easy way to visit the city.We had a very enjoyable stay at The Boston Commons hotel and if we ever visit the Denver area again we will look to stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r134051676-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>134051676</t>
+  </si>
+  <si>
+    <t>07/10/2012</t>
+  </si>
+  <si>
+    <t>I stayed here in June while on business. I was in one of the suites. The suites are spacious - about 600 square feet / 56 m2 - and come with your own washer and dryer. I also loved the flat screen TV and the hard mattress. They offer a shuttle van that will take people within a 5 mile radius. At the front desk they resolutely tell you 3 miles. The person who mans the front desk also drives the van! They actually leave the desk unattended while they drive you. It's not the best setup I've come across. I was here on business and did not have a car. One day I called in advance for a 5pm collection. They did not come until nearly 6pm! The cleaning staff were also not helpful. I was there for a week and they did not vacuum or change towels. I had to chase them down for some dish soap so I could wash up. It's a peaceful location and is not bad if you do need to stay somewhere for a week. But you will want your own wheels.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here in June while on business. I was in one of the suites. The suites are spacious - about 600 square feet / 56 m2 - and come with your own washer and dryer. I also loved the flat screen TV and the hard mattress. They offer a shuttle van that will take people within a 5 mile radius. At the front desk they resolutely tell you 3 miles. The person who mans the front desk also drives the van! They actually leave the desk unattended while they drive you. It's not the best setup I've come across. I was here on business and did not have a car. One day I called in advance for a 5pm collection. They did not come until nearly 6pm! The cleaning staff were also not helpful. I was there for a week and they did not vacuum or change towels. I had to chase them down for some dish soap so I could wash up. It's a peaceful location and is not bad if you do need to stay somewhere for a week. But you will want your own wheels.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r133878215-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -754,9 +1202,6 @@
     <t>Stayed for 3 nights.  I stay here every year for a business trip to Denver.  Most rooms are upgraded and nice.  Refrigerator and microwave in most along with flat screen TVs.  The pillows are rock hard.  But, for the price, I think next time I'll take a trip to Target and buy a better pillow and still save money over any other place close.  It's a quiet area and feels very safe.  The hot breakfast is very good, and changes each morning.</t>
   </si>
   <si>
-    <t>June 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r131138897-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -793,6 +1238,57 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r121668967-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>121668967</t>
+  </si>
+  <si>
+    <t>12/12/2011</t>
+  </si>
+  <si>
+    <t>Overnight</t>
+  </si>
+  <si>
+    <t>We had a late check in the night we stayed with no issues. It was a little tricky finding the building we were in at night. Bed was comfortable, room basic. Quiet and great location. Great breakfast! Staff was helpful during the stay. After we checked out my son realized he had left his stuffed animal. I have called multiple times trying to find it with no results, only an answer of a call back after checking with housekeeping. That would be my only complaint.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r121395803-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>121395803</t>
+  </si>
+  <si>
+    <t>12/04/2011</t>
+  </si>
+  <si>
+    <t>Good value; good location; but with limitations</t>
+  </si>
+  <si>
+    <t>I REALLY want to be able to recommend Boston Commons, and I can – with reservation. My wife and I have been traveling to Denver several times a year since our daughter moved there 6 years ago. We’ve stayed in Boston Commons at least 6 times – almost always in Building 2, third floor. So our experience is limited to that area and, of course, the ‘common’ areas. So here’s the good, bad and the ugly;
+GOOD: Price. If you get the ‘corporate rate’, you can get a 1 BR apartment (not a suite, but an apartment, with full size kitchen and living area) for $20-$30 less per night than any extended stay or suite hotel we’ve seen in the Denver area. This is what attracted us and kept us coming back. One time we stayed in a “standard” room. This is essentially the second bedroom of the apartment with a bath. So, if you’ve got several people, you can rent a 2 BR apartment and share the kitchen and living room. 
+Location: The Englewood area is near the Denver Tech Center, shopping, restaurants, etc, with easy access to I25 and C470 West. 
+Good bed. Just the right firmness for us, and relatively little movement transfer. Queen size only. 
+Washer and Dryer in the apartment!! No extra charge for use. 
+Nice Kitchen: full size stove/oven and fridge. Decently outfitted with cooking and eating utensils. 
+Other stuff: Gas fireplace adds a...I REALLY want to be able to recommend Boston Commons, and I can – with reservation. My wife and I have been traveling to Denver several times a year since our daughter moved there 6 years ago. We’ve stayed in Boston Commons at least 6 times – almost always in Building 2, third floor. So our experience is limited to that area and, of course, the ‘common’ areas. So here’s the good, bad and the ugly;GOOD: Price. If you get the ‘corporate rate’, you can get a 1 BR apartment (not a suite, but an apartment, with full size kitchen and living area) for $20-$30 less per night than any extended stay or suite hotel we’ve seen in the Denver area. This is what attracted us and kept us coming back. One time we stayed in a “standard” room. This is essentially the second bedroom of the apartment with a bath. So, if you’ve got several people, you can rent a 2 BR apartment and share the kitchen and living room. Location: The Englewood area is near the Denver Tech Center, shopping, restaurants, etc, with easy access to I25 and C470 West. Good bed. Just the right firmness for us, and relatively little movement transfer. Queen size only. Washer and Dryer in the apartment!! No extra charge for use. Nice Kitchen: full size stove/oven and fridge. Decently outfitted with cooking and eating utensils. Other stuff: Gas fireplace adds a really nice touch on a cold night. These apartments were built in the late 70s or early 80s and the bath and kitchen look like it. No updates to the cabinets or fixtures, but they worked fine. Reasonably well-cleaned (but see below) by the maid staff. The workout center consists of one bike, one treadmill, one weight machine. Breakfast is OK – usual fare, with something hot each morning (sausage/eggs or bacon) and cut-up fruit. Nice dining area on the second floor.BAD:  No maid service on weekends. If you’re planning a weekend retreat here, don’t.No breakfast on Sundays. This is OK by us, since we feel Sunday is a day of rest and worship, but just info for you, the reader. Be prepared to fix your own. The Commons are beginning to show their age, but while we were there, painters were painting and caulking the outside, so I’m sure that will help. Still, the carpets are stained in spots and chips and wear spots are evident in the Formica counter tops. Noise. About twice a week, the trash collectors provide you a free wakeup call – at about 5:30 or 6 in the morning. Not bad if you’re working, but if this is a vacation, you’re likely gonna be as peeved as we were.  The separation between a one-BR apt and the ‘standard’ room next door is just that – a door. So there’s considerable noise transfer from your neighbors. If they’re particularly amorous (as ours were one visit), the (ahem) sounds of love and the headboard banging against the wall will likely keep you awake. Since we always stayed on the highest floor, I can't comment on floor-conducted noise.This complex was evidently built before ADA compliance was required – there are no elevators, but you can definitely get your exercise walking up the steps. (A little difficult the first few days as you get used to the elevation, if you’re a flatlander.) UGLY: The “business center”. The ONLY computer is (no kidding) at least 10 years old. Remember floppy disks? This computer has a floppy drive. USB port is broken. It is PAINFULLY slow. Printer was out of toner when we were there and the desk clerk told us “just shake it, maybe you can get a page or 2 out of it”. Thanks for the help! :-{ No wireless connection to the printer, so if you want a print something from your room, forget it. The wireless internet provided for the rooms/apartments is decent – but intermittent. Odor: Previous and current patrons are from the India/Pakistan area, and, with all due respect to our eastern Asian friends, they love spicy, aromatic food with lots of curry. It is almost impossible to get that odor out of the drapes and furnishings, and while it certainly wasn’t overpowering, I awoke to a sinus issue every morning.Furnace ducts need to be cleaned. See photos. The cold air intake was covered with dust. A dusty odor was present when we walked into the apartment.So the bottom line is that Boston Commons (aka The Commons) provides a very good value if you’re looking for enough space and can deal with the inconveniences listed above. I hope this review was helpful in your selection of a place to stay near DTC.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>I REALLY want to be able to recommend Boston Commons, and I can – with reservation. My wife and I have been traveling to Denver several times a year since our daughter moved there 6 years ago. We’ve stayed in Boston Commons at least 6 times – almost always in Building 2, third floor. So our experience is limited to that area and, of course, the ‘common’ areas. So here’s the good, bad and the ugly;
+GOOD: Price. If you get the ‘corporate rate’, you can get a 1 BR apartment (not a suite, but an apartment, with full size kitchen and living area) for $20-$30 less per night than any extended stay or suite hotel we’ve seen in the Denver area. This is what attracted us and kept us coming back. One time we stayed in a “standard” room. This is essentially the second bedroom of the apartment with a bath. So, if you’ve got several people, you can rent a 2 BR apartment and share the kitchen and living room. 
+Location: The Englewood area is near the Denver Tech Center, shopping, restaurants, etc, with easy access to I25 and C470 West. 
+Good bed. Just the right firmness for us, and relatively little movement transfer. Queen size only. 
+Washer and Dryer in the apartment!! No extra charge for use. 
+Nice Kitchen: full size stove/oven and fridge. Decently outfitted with cooking and eating utensils. 
+Other stuff: Gas fireplace adds a...I REALLY want to be able to recommend Boston Commons, and I can – with reservation. My wife and I have been traveling to Denver several times a year since our daughter moved there 6 years ago. We’ve stayed in Boston Commons at least 6 times – almost always in Building 2, third floor. So our experience is limited to that area and, of course, the ‘common’ areas. So here’s the good, bad and the ugly;GOOD: Price. If you get the ‘corporate rate’, you can get a 1 BR apartment (not a suite, but an apartment, with full size kitchen and living area) for $20-$30 less per night than any extended stay or suite hotel we’ve seen in the Denver area. This is what attracted us and kept us coming back. One time we stayed in a “standard” room. This is essentially the second bedroom of the apartment with a bath. So, if you’ve got several people, you can rent a 2 BR apartment and share the kitchen and living room. Location: The Englewood area is near the Denver Tech Center, shopping, restaurants, etc, with easy access to I25 and C470 West. Good bed. Just the right firmness for us, and relatively little movement transfer. Queen size only. Washer and Dryer in the apartment!! No extra charge for use. Nice Kitchen: full size stove/oven and fridge. Decently outfitted with cooking and eating utensils. Other stuff: Gas fireplace adds a really nice touch on a cold night. These apartments were built in the late 70s or early 80s and the bath and kitchen look like it. No updates to the cabinets or fixtures, but they worked fine. Reasonably well-cleaned (but see below) by the maid staff. The workout center consists of one bike, one treadmill, one weight machine. Breakfast is OK – usual fare, with something hot each morning (sausage/eggs or bacon) and cut-up fruit. Nice dining area on the second floor.BAD:  No maid service on weekends. If you’re planning a weekend retreat here, don’t.No breakfast on Sundays. This is OK by us, since we feel Sunday is a day of rest and worship, but just info for you, the reader. Be prepared to fix your own. The Commons are beginning to show their age, but while we were there, painters were painting and caulking the outside, so I’m sure that will help. Still, the carpets are stained in spots and chips and wear spots are evident in the Formica counter tops. Noise. About twice a week, the trash collectors provide you a free wakeup call – at about 5:30 or 6 in the morning. Not bad if you’re working, but if this is a vacation, you’re likely gonna be as peeved as we were.  The separation between a one-BR apt and the ‘standard’ room next door is just that – a door. So there’s considerable noise transfer from your neighbors. If they’re particularly amorous (as ours were one visit), the (ahem) sounds of love and the headboard banging against the wall will likely keep you awake. Since we always stayed on the highest floor, I can't comment on floor-conducted noise.This complex was evidently built before ADA compliance was required – there are no elevators, but you can definitely get your exercise walking up the steps. (A little difficult the first few days as you get used to the elevation, if you’re a flatlander.) UGLY: The “business center”. The ONLY computer is (no kidding) at least 10 years old. Remember floppy disks? This computer has a floppy drive. USB port is broken. It is PAINFULLY slow. Printer was out of toner when we were there and the desk clerk told us “just shake it, maybe you can get a page or 2 out of it”. Thanks for the help! :-{ No wireless connection to the printer, so if you want a print something from your room, forget it. The wireless internet provided for the rooms/apartments is decent – but intermittent. Odor: Previous and current patrons are from the India/Pakistan area, and, with all due respect to our eastern Asian friends, they love spicy, aromatic food with lots of curry. It is almost impossible to get that odor out of the drapes and furnishings, and while it certainly wasn’t overpowering, I awoke to a sinus issue every morning.Furnace ducts need to be cleaned. See photos. The cold air intake was covered with dust. A dusty odor was present when we walked into the apartment.So the bottom line is that Boston Commons (aka The Commons) provides a very good value if you’re looking for enough space and can deal with the inconveniences listed above. I hope this review was helpful in your selection of a place to stay near DTC.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r116495912-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -844,6 +1340,45 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r113296156-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>113296156</t>
+  </si>
+  <si>
+    <t>06/13/2011</t>
+  </si>
+  <si>
+    <t>Great extended stay hotel!</t>
+  </si>
+  <si>
+    <t>3rd time I've stayed here for extended stay visits to the Denver area.  The one bedroom condo unit (not the hotel room) is the one I choose.  OK it's got outdated fixtures and furniture, but it's comfortable and clean.  It's usually quiet, however, I did get someone upstairs from me for 2 nights that had an out-of-control child who was jumping on the floor constantly.  The location can't be beat, walking distance to a light-rail station.  Very close to a lot of restaurants on the main road two blocks away (Arapahoe Rd).  As a single woman on the road I felt very safe and always do here, mainly because I know the area is mostly residential and upscale.  They clean everyday, and the free breakfast is very very good (not served on Sunday).  I would highly recommend this for an extended stay visit.  I would not recommend it for a one-night stay simply because it's a quick in/out hotel.  It's actually a condo complex so the rooms are spread out over about 10 buildings, with 3 floors each.  The gas fireplace was a welcome feature on those cold Colorado nights!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>3rd time I've stayed here for extended stay visits to the Denver area.  The one bedroom condo unit (not the hotel room) is the one I choose.  OK it's got outdated fixtures and furniture, but it's comfortable and clean.  It's usually quiet, however, I did get someone upstairs from me for 2 nights that had an out-of-control child who was jumping on the floor constantly.  The location can't be beat, walking distance to a light-rail station.  Very close to a lot of restaurants on the main road two blocks away (Arapahoe Rd).  As a single woman on the road I felt very safe and always do here, mainly because I know the area is mostly residential and upscale.  They clean everyday, and the free breakfast is very very good (not served on Sunday).  I would highly recommend this for an extended stay visit.  I would not recommend it for a one-night stay simply because it's a quick in/out hotel.  It's actually a condo complex so the rooms are spread out over about 10 buildings, with 3 floors each.  The gas fireplace was a welcome feature on those cold Colorado nights!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r106915212-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>106915212</t>
+  </si>
+  <si>
+    <t>05/04/2011</t>
+  </si>
+  <si>
+    <t>Excellent room at an excellent price!!</t>
+  </si>
+  <si>
+    <t>I really loved this place and the price was unbelievable for the quality of the room.  I think we only paid around $50.  We booked a one bedroom (not the efficiency).  There was a big comfy sectional sofa and a nice flat screen tv in the living room.  The little dining room &amp; kitchen were small, but really efficient.  The bedroom was cozy and clean as well.  I know "cute" is a weird description for a hotel, but that's what I would call it.  I would highly recommend this hotel and would enjoy staying there again.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r88283018-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -898,6 +1433,48 @@
     <t>I have never written a review before but feel I need to acknoledge this great deal! The staff was very helpful and upbeat even thoough I checked in 1 1/2 hours late (BAD traffic jam in Denver). I also forgot to book an extra day to catch my flight the day after conference ended-no problem, no huge fee (same price as when I booked on expedia). OK here it is-The Commons felt like a condo instead of a hotel. I was on the 3rd floor (no elevators) so I felt safe opening the window at night (window opened to a huge pine tree) I could hear the din of city traffic but mostly could hear the beautiful house finch singing outside my window...almost felt like home. Great comfy bed with duvet fluffy down comfortor. The decor was Arts and Crafts oak funiture with granit counter tops. There was walk in closet with a full sized ironing board and iron, lots of storage for clothes, a desk to work on. In the morning before my conference I could read by the window with morning sun shining in (til it rained the next 2 days). I got a free breakfast each day (not that great but free-none available on Sunday) I got a ride to and from my conference free. In the evening there was free beer and wine with hot snacks-again not great food but comforting and I was worried it...I have never written a review before but feel I need to acknoledge this great deal! The staff was very helpful and upbeat even thoough I checked in 1 1/2 hours late (BAD traffic jam in Denver). I also forgot to book an extra day to catch my flight the day after conference ended-no problem, no huge fee (same price as when I booked on expedia). OK here it is-The Commons felt like a condo instead of a hotel. I was on the 3rd floor (no elevators) so I felt safe opening the window at night (window opened to a huge pine tree) I could hear the din of city traffic but mostly could hear the beautiful house finch singing outside my window...almost felt like home. Great comfy bed with duvet fluffy down comfortor. The decor was Arts and Crafts oak funiture with granit counter tops. There was walk in closet with a full sized ironing board and iron, lots of storage for clothes, a desk to work on. In the morning before my conference I could read by the window with morning sun shining in (til it rained the next 2 days). I got a free breakfast each day (not that great but free-none available on Sunday) I got a ride to and from my conference free. In the evening there was free beer and wine with hot snacks-again not great food but comforting and I was worried it might be cheesey-but the 'crowd' (5-7 people) was couples or travelors like me just needing some homey comforts at the end of the day. I am a 52 year old female travelling by myself and I felt absolutely safe here. It's clean, friendly, and a great deal at 59/night (the next best price I got in area was 119/night). Oh yeah-there is a pool, hot tub, live plants on the club house tables and patio (where you go to eat). I did not bring my laptop but that was OK too, they have a computer in the club house you can use (also connections in rooms) The TV was high definition. What else can I say....it is a great find and I will always stay here when I need to stay in DenverMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r51963114-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>51963114</t>
+  </si>
+  <si>
+    <t>12/27/2009</t>
+  </si>
+  <si>
+    <t>hotel looks good until you check in and find the flaws</t>
+  </si>
+  <si>
+    <t>The first room they gave us had problems with the heat. There was an attempt to fix the heat, but discovered the next night the heat still was not working. The beds are old and uncomfortable. The bedding is old and gross. My daughter had her friend bring her a blanket as she would not use the one provided. The room was dirty and my daughter had an allergy attack because some kind of pet or purfume must have been in the room previously. Climbing the steps in the snow to the third floor was not fun. They did not have the hot breakfast that was promised as they said the oven was broke. The room they moved us to that had heat did not have a TV in the bedroom.  The bedroom curtain would not close so we had a spot lite shine in all night. The desk is not open after hours. When we ran the washer the room smelled like 'poo'.  We went to breakfast at 8:50 and they were putting food away as we were trying to prepare our breakfast. They ran out of everything early and would not refresh the food. The business center was not open 24/7 and the internet hardly worked. We stayed three days and moved to the Hyatt for the last four days which was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>The first room they gave us had problems with the heat. There was an attempt to fix the heat, but discovered the next night the heat still was not working. The beds are old and uncomfortable. The bedding is old and gross. My daughter had her friend bring her a blanket as she would not use the one provided. The room was dirty and my daughter had an allergy attack because some kind of pet or purfume must have been in the room previously. Climbing the steps in the snow to the third floor was not fun. They did not have the hot breakfast that was promised as they said the oven was broke. The room they moved us to that had heat did not have a TV in the bedroom.  The bedroom curtain would not close so we had a spot lite shine in all night. The desk is not open after hours. When we ran the washer the room smelled like 'poo'.  We went to breakfast at 8:50 and they were putting food away as we were trying to prepare our breakfast. They ran out of everything early and would not refresh the food. The business center was not open 24/7 and the internet hardly worked. We stayed three days and moved to the Hyatt for the last four days which was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r46396336-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>46396336</t>
+  </si>
+  <si>
+    <t>10/09/2009</t>
+  </si>
+  <si>
+    <t>Not worth saving a few dollars</t>
+  </si>
+  <si>
+    <t>This place sounded great and looked great in the pictures until we arrived. They advertised a fully stocked kitchen and balcony. The kitchen had 2 pots and pans and some silverware and that was it. It was not fully stocked at all and when I called the desk they indicated to me that was a fully stocked kitchen. The balcony was 9 inches wide and was there for looks only. The inside of the rooms were outdated and in poor condition. The carpet appeared to be soiled and very worn out. The appliances were late 70's vintage and that bathroom was just as bad. The toilet didn't flush properly and the bathroom was dark and very old. The bed in the bedroom was very old and not comfortable at all. We were grossed out with the bedding and the overall cleanliness of the place. This place might be okay for a single guy to stay in but for couples or families stay away because you will not be happy. We left after 2 days and we were supposed to stay for an entire week.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>This place sounded great and looked great in the pictures until we arrived. They advertised a fully stocked kitchen and balcony. The kitchen had 2 pots and pans and some silverware and that was it. It was not fully stocked at all and when I called the desk they indicated to me that was a fully stocked kitchen. The balcony was 9 inches wide and was there for looks only. The inside of the rooms were outdated and in poor condition. The carpet appeared to be soiled and very worn out. The appliances were late 70's vintage and that bathroom was just as bad. The toilet didn't flush properly and the bathroom was dark and very old. The bed in the bedroom was very old and not comfortable at all. We were grossed out with the bedding and the overall cleanliness of the place. This place might be okay for a single guy to stay in but for couples or families stay away because you will not be happy. We left after 2 days and we were supposed to stay for an entire week.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r45687830-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -916,9 +1493,6 @@
     <t>September 2009</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>I stayed at the Boston Commons on September 23, 2009 for one night. It was a stop over trip as I was on my way to Phoenix. I got an excellent rate of $66.50 CDN for one night through Expedia.I thought this hotel was a very good choice. The hotel is a little ways from downtown Denver but that was a concern for me. The surroundings were very nice. There is lots of green space and trees around the hotel. It was very quiet and very clean.You do have to walk up stairs if you are not on the first floor, but again that wasn't a big deal for me.The wireless internet worked perfectly from my room.There are bars, restaurants nearby.The breakfast was awesome. A hot breakfast, with eggs, potatoes, and the usual cereals, fruit, juice etc.I highly recommend staying here.More</t>
   </si>
   <si>
@@ -956,6 +1530,45 @@
   </si>
   <si>
     <t>May 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r29865980-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>29865980</t>
+  </si>
+  <si>
+    <t>05/12/2009</t>
+  </si>
+  <si>
+    <t>The Epitome of Bad Customer Service!</t>
+  </si>
+  <si>
+    <t>No accomadations for handicap or wheelchair guests.  All rooms and hospitality area are reached by several flights of stairs.  For the fitness fanatic...the fitness area consists of an old treadmill, a stationary bike and one 20 lb free weight.  The "heated" pool was too cold to even enter, the hot tub was shabby with missing tiles and non-working jets.  Not uncommon, for the front desk to be unmanned during peak business hours.  Business phone rarely answered.  The GM John Little was very rude, unfriendly and extremely confrontational.  Seems he was upset that I had "more than my share" at breakfast and was drinking the free beer.  I attempted to explain to him that he must have me confused with another guest since I had  been to the breakfast area once and only had a small bowl of canned peaches and water.  I also notified him that I had NEVER been to the evening hospitality area.  In spite of being a long term guest at the hotel, I decided to check out after Mr Little's lobby tirade.  As a guest of the hotel, who had conducted myself with professionalism, courtesy and politeness to the other 3 employees, I certainly didn't deserve to be verbally reprimanded in the lobby and accused of gluttony and lying.MoreShow less</t>
+  </si>
+  <si>
+    <t>No accomadations for handicap or wheelchair guests.  All rooms and hospitality area are reached by several flights of stairs.  For the fitness fanatic...the fitness area consists of an old treadmill, a stationary bike and one 20 lb free weight.  The "heated" pool was too cold to even enter, the hot tub was shabby with missing tiles and non-working jets.  Not uncommon, for the front desk to be unmanned during peak business hours.  Business phone rarely answered.  The GM John Little was very rude, unfriendly and extremely confrontational.  Seems he was upset that I had "more than my share" at breakfast and was drinking the free beer.  I attempted to explain to him that he must have me confused with another guest since I had  been to the breakfast area once and only had a small bowl of canned peaches and water.  I also notified him that I had NEVER been to the evening hospitality area.  In spite of being a long term guest at the hotel, I decided to check out after Mr Little's lobby tirade.  As a guest of the hotel, who had conducted myself with professionalism, courtesy and politeness to the other 3 employees, I certainly didn't deserve to be verbally reprimanded in the lobby and accused of gluttony and lying.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r23843020-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>23843020</t>
+  </si>
+  <si>
+    <t>01/23/2009</t>
+  </si>
+  <si>
+    <t>NOT ADA accessible!!!</t>
+  </si>
+  <si>
+    <t>This hotel had NO access for people with disabilities! No handicapped parking, no hand rails, no non slip flooring (there were rock stairs), my room was on the second floor and I had a wheelchair, no elevator, the restaurant is on the second floor, no handrails in the shower and on top of all that - they were rude! I had to check out 2 days early and cancel my trip due to the pain I received from the inconveniences above. In the interest of all disabled persons,  I am  reporting a Title 3 violation to the following:U.S. Department of JusticeCivil Rights DivisionDisability Rights SectionIt took me 1 week to get a 1 day refund from Hotels.com for this pre-paid purchase and they kept the other day because they wanted to. The website did not say this hotel was not ADA friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>This hotel had NO access for people with disabilities! No handicapped parking, no hand rails, no non slip flooring (there were rock stairs), my room was on the second floor and I had a wheelchair, no elevator, the restaurant is on the second floor, no handrails in the shower and on top of all that - they were rude! I had to check out 2 days early and cancel my trip due to the pain I received from the inconveniences above. In the interest of all disabled persons,  I am  reporting a Title 3 violation to the following:U.S. Department of JusticeCivil Rights DivisionDisability Rights SectionIt took me 1 week to get a 1 day refund from Hotels.com for this pre-paid purchase and they kept the other day because they wanted to. The website did not say this hotel was not ADA friendly.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119982-r1671295-The_Commons_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
@@ -1508,7 +2121,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1521,7 +2134,9 @@
       <c r="R2" t="n">
         <v>4</v>
       </c>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
         <v>4</v>
@@ -1532,7 +2147,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1548,43 +2163,43 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>5</v>
@@ -1595,7 +2210,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1611,41 +2226,45 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>61</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -1695,21 +2314,27 @@
         <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -1725,7 +2350,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1734,45 +2359,39 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -1809,33 +2428,23 @@
         <v>84</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s">
-        <v>85</v>
-      </c>
-      <c r="O7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -1851,45 +2460,41 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
         <v>88</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>89</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>90</v>
       </c>
-      <c r="K8" t="s">
+      <c r="O8" t="s">
         <v>91</v>
       </c>
-      <c r="L8" t="s">
-        <v>92</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>85</v>
-      </c>
-      <c r="O8" t="s">
-        <v>86</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>3</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
@@ -1933,31 +2538,27 @@
         <v>97</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -1997,19 +2598,19 @@
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s">
         <v>53</v>
       </c>
-      <c r="P10" t="s"/>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
       <c r="Q10" t="s"/>
       <c r="R10" t="n">
-        <v>4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>5</v>
@@ -2036,7 +2637,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2045,37 +2646,37 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s">
-        <v>110</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="s"/>
       <c r="R11" t="n">
         <v>2</v>
       </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2120,31 +2721,37 @@
         <v>116</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>4</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>117</v>
+      </c>
+      <c r="X12" t="s">
+        <v>118</v>
+      </c>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
@@ -2160,7 +2767,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2169,35 +2776,37 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O13" t="s">
-        <v>86</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2205,7 +2814,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
@@ -2221,7 +2830,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2230,10 +2839,10 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K14" t="s">
         <v>127</v>
@@ -2242,25 +2851,23 @@
         <v>128</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>2</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2268,7 +2875,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
@@ -2284,46 +2891,44 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
         <v>130</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>131</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>132</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>133</v>
       </c>
-      <c r="L15" t="s">
-        <v>134</v>
-      </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="O15" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
         <v>5</v>
       </c>
-      <c r="R15" t="n">
-        <v>3</v>
-      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2347,48 +2952,54 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
         <v>136</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>137</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>138</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>139</v>
       </c>
-      <c r="L16" t="s">
-        <v>140</v>
-      </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="O16" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17">
@@ -2404,34 +3015,34 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
         <v>141</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>142</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>143</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>144</v>
       </c>
-      <c r="L17" t="s">
-        <v>145</v>
-      </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="O17" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2445,7 +3056,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
@@ -2461,46 +3072,44 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" t="s">
         <v>147</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>148</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>149</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>150</v>
       </c>
-      <c r="L18" t="s">
-        <v>151</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4</v>
-      </c>
-      <c r="N18" t="s">
-        <v>79</v>
-      </c>
       <c r="O18" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="n">
         <v>5</v>
       </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2508,7 +3117,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
@@ -2524,44 +3133,46 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
         <v>153</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>154</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>155</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>156</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>150</v>
+      </c>
+      <c r="O19" t="s">
         <v>157</v>
       </c>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s">
-        <v>158</v>
-      </c>
-      <c r="O19" t="s">
-        <v>86</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2569,7 +3180,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20">
@@ -2606,29 +3217,23 @@
         <v>163</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
         <v>164</v>
       </c>
       <c r="O20" t="s">
-        <v>86</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2673,29 +3278,23 @@
         <v>169</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
         <v>170</v>
       </c>
       <c r="O21" t="s">
-        <v>110</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
       <c r="R21" t="n">
         <v>4</v>
       </c>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2703,7 +3302,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22">
@@ -2719,50 +3318,42 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
         <v>172</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>173</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>174</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>175</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
         <v>176</v>
       </c>
-      <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>177</v>
       </c>
-      <c r="O22" t="s">
-        <v>86</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2810,26 +3401,22 @@
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="O23" t="s">
-        <v>86</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="n">
-        <v>3</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2837,7 +3424,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24">
@@ -2853,50 +3440,46 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" t="s">
         <v>186</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>187</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
         <v>188</v>
       </c>
-      <c r="K24" t="s">
-        <v>189</v>
-      </c>
-      <c r="L24" t="s">
-        <v>190</v>
-      </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="O24" t="s">
         <v>53</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>4</v>
-      </c>
-      <c r="R24" t="n">
         <v>1</v>
       </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2904,7 +3487,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25">
@@ -2920,50 +3503,46 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" t="s">
         <v>193</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="L25" t="s">
         <v>194</v>
       </c>
-      <c r="J25" t="s">
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
         <v>195</v>
       </c>
-      <c r="K25" t="s">
-        <v>196</v>
-      </c>
-      <c r="L25" t="s">
-        <v>197</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="s">
-        <v>184</v>
-      </c>
       <c r="O25" t="s">
-        <v>61</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R25" t="n">
         <v>3</v>
       </c>
-      <c r="S25" t="n">
-        <v>3</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2971,7 +3550,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26">
@@ -2987,45 +3566,39 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>197</v>
+      </c>
+      <c r="J26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K26" t="s">
         <v>199</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="L26" t="s">
         <v>200</v>
       </c>
-      <c r="J26" t="s">
-        <v>201</v>
-      </c>
-      <c r="K26" t="s">
-        <v>202</v>
-      </c>
-      <c r="L26" t="s">
-        <v>203</v>
-      </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="O26" t="s">
-        <v>61</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="s"/>
       <c r="V26" t="n">
@@ -3034,7 +3607,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27">
@@ -3050,54 +3623,48 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>202</v>
+      </c>
+      <c r="J27" t="s">
+        <v>203</v>
+      </c>
+      <c r="K27" t="s">
+        <v>204</v>
+      </c>
+      <c r="L27" t="s">
         <v>205</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
         <v>206</v>
       </c>
-      <c r="J27" t="s">
-        <v>207</v>
-      </c>
-      <c r="K27" t="s">
-        <v>208</v>
-      </c>
-      <c r="L27" t="s">
-        <v>209</v>
-      </c>
-      <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4</v>
-      </c>
+      <c r="O27" t="s">
+        <v>157</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>4</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28">
@@ -3113,31 +3680,31 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>208</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>209</v>
+      </c>
+      <c r="J28" t="s">
         <v>210</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
         <v>211</v>
       </c>
-      <c r="J28" t="s">
+      <c r="L28" t="s">
         <v>212</v>
-      </c>
-      <c r="K28" t="s">
-        <v>213</v>
-      </c>
-      <c r="L28" t="s">
-        <v>214</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O28" t="s">
         <v>53</v>
@@ -3145,18 +3712,12 @@
       <c r="P28" t="n">
         <v>3</v>
       </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3164,7 +3725,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29">
@@ -3180,58 +3741,48 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>216</v>
+      </c>
+      <c r="J29" t="s">
         <v>217</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="K29" t="s">
         <v>218</v>
       </c>
-      <c r="J29" t="s">
+      <c r="L29" t="s">
         <v>219</v>
       </c>
-      <c r="K29" t="s">
-        <v>220</v>
-      </c>
-      <c r="L29" t="s">
-        <v>221</v>
-      </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="O29" t="s">
-        <v>86</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30">
@@ -3247,50 +3798,46 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>220</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>221</v>
+      </c>
+      <c r="J30" t="s">
+        <v>222</v>
+      </c>
+      <c r="K30" t="s">
         <v>223</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="L30" t="s">
         <v>224</v>
       </c>
-      <c r="J30" t="s">
-        <v>225</v>
-      </c>
-      <c r="K30" t="s">
-        <v>226</v>
-      </c>
-      <c r="L30" t="s">
-        <v>227</v>
-      </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>222</v>
+        <v>104</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
-        <v>2</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3298,7 +3845,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31">
@@ -3314,48 +3861,52 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>226</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J31" t="s">
+        <v>228</v>
+      </c>
+      <c r="K31" t="s">
         <v>229</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="L31" t="s">
         <v>230</v>
       </c>
-      <c r="J31" t="s">
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
         <v>231</v>
       </c>
-      <c r="K31" t="s">
-        <v>232</v>
-      </c>
-      <c r="L31" t="s">
-        <v>233</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="s">
-        <v>234</v>
-      </c>
       <c r="O31" t="s">
-        <v>110</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32">
@@ -3371,50 +3922,42 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>233</v>
+      </c>
+      <c r="J32" t="s">
+        <v>234</v>
+      </c>
+      <c r="K32" t="s">
         <v>235</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="L32" t="s">
         <v>236</v>
       </c>
-      <c r="J32" t="s">
-        <v>237</v>
-      </c>
-      <c r="K32" t="s">
-        <v>238</v>
-      </c>
-      <c r="L32" t="s">
-        <v>239</v>
-      </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="O32" t="s">
-        <v>61</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3422,7 +3965,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33">
@@ -3438,37 +3981,37 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>239</v>
+      </c>
+      <c r="J33" t="s">
+        <v>240</v>
+      </c>
+      <c r="K33" t="s">
         <v>241</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="L33" t="s">
         <v>242</v>
       </c>
-      <c r="J33" t="s">
-        <v>243</v>
-      </c>
-      <c r="K33" t="s">
-        <v>244</v>
-      </c>
-      <c r="L33" t="s">
-        <v>245</v>
-      </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="O33" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q33" t="n">
         <v>3</v>
@@ -3489,7 +4032,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34">
@@ -3505,46 +4048,46 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>245</v>
+      </c>
+      <c r="J34" t="s">
+        <v>246</v>
+      </c>
+      <c r="K34" t="s">
         <v>247</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="L34" t="s">
         <v>248</v>
       </c>
-      <c r="J34" t="s">
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
         <v>249</v>
       </c>
-      <c r="K34" t="s">
-        <v>250</v>
-      </c>
-      <c r="L34" t="s">
-        <v>251</v>
-      </c>
-      <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
-        <v>252</v>
-      </c>
       <c r="O34" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
@@ -3556,7 +4099,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35">
@@ -3572,46 +4115,50 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>250</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>251</v>
+      </c>
+      <c r="J35" t="s">
+        <v>252</v>
+      </c>
+      <c r="K35" t="s">
         <v>253</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="L35" t="s">
         <v>254</v>
       </c>
-      <c r="J35" t="s">
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
         <v>255</v>
       </c>
-      <c r="K35" t="s">
-        <v>256</v>
-      </c>
-      <c r="L35" t="s">
-        <v>257</v>
-      </c>
-      <c r="M35" t="n">
-        <v>4</v>
-      </c>
-      <c r="N35" t="s">
-        <v>258</v>
-      </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3619,7 +4166,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36">
@@ -3635,42 +4182,46 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>257</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>258</v>
+      </c>
+      <c r="J36" t="s">
         <v>259</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="K36" t="s">
         <v>260</v>
       </c>
-      <c r="J36" t="s">
+      <c r="L36" t="s">
         <v>261</v>
       </c>
-      <c r="K36" t="s">
-        <v>262</v>
-      </c>
-      <c r="L36" t="s">
-        <v>263</v>
-      </c>
       <c r="M36" t="n">
-        <v>5</v>
-      </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>213</v>
+      </c>
+      <c r="O36" t="s">
+        <v>91</v>
+      </c>
       <c r="P36" t="n">
         <v>5</v>
       </c>
       <c r="Q36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
@@ -3682,7 +4233,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37">
@@ -3698,46 +4249,50 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>263</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
         <v>264</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>265</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>266</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>267</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
         <v>268</v>
       </c>
-      <c r="M37" t="n">
-        <v>4</v>
-      </c>
-      <c r="N37" t="s">
-        <v>269</v>
-      </c>
       <c r="O37" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3745,7 +4300,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38">
@@ -3782,13 +4337,13 @@
         <v>274</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
         <v>275</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -3800,7 +4355,7 @@
         <v>5</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
@@ -3812,7 +4367,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39">
@@ -3828,7 +4383,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3837,37 +4392,37 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J39" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K39" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L39" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O39" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R39" t="n">
         <v>5</v>
       </c>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
@@ -3879,7 +4434,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40">
@@ -3895,7 +4450,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -3904,41 +4459,41 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J40" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K40" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L40" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="O40" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3946,7 +4501,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41">
@@ -3962,7 +4517,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -3971,41 +4526,41 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J41" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K41" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L41" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="O41" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4013,7 +4568,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42">
@@ -4029,7 +4584,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4038,41 +4593,37 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J42" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K42" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L42" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="s">
-        <v>301</v>
-      </c>
-      <c r="O42" t="s">
-        <v>53</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4080,7 +4631,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43">
@@ -4117,29 +4668,25 @@
         <v>306</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
-      </c>
-      <c r="N43" t="s">
-        <v>307</v>
-      </c>
-      <c r="O43" t="s">
-        <v>53</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4147,7 +4694,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44">
@@ -4184,14 +4731,24 @@
         <v>312</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
-      </c>
-      <c r="N44" t="s"/>
-      <c r="O44" t="s"/>
-      <c r="P44" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>313</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
       <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
-      <c r="S44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
       <c r="T44" t="s"/>
       <c r="U44" t="s"/>
       <c r="V44" t="n">
@@ -4200,7 +4757,1957 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>313</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>314</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>315</v>
+      </c>
+      <c r="J45" t="s">
+        <v>316</v>
+      </c>
+      <c r="K45" t="s">
+        <v>317</v>
+      </c>
+      <c r="L45" t="s">
+        <v>318</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>319</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>320</v>
+      </c>
+      <c r="J46" t="s">
+        <v>321</v>
+      </c>
+      <c r="K46" t="s">
+        <v>322</v>
+      </c>
+      <c r="L46" t="s">
+        <v>323</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>324</v>
+      </c>
+      <c r="O46" t="s">
+        <v>66</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>326</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>327</v>
+      </c>
+      <c r="J47" t="s">
+        <v>328</v>
+      </c>
+      <c r="K47" t="s">
+        <v>329</v>
+      </c>
+      <c r="L47" t="s">
+        <v>330</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>331</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>333</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>334</v>
+      </c>
+      <c r="J48" t="s">
+        <v>335</v>
+      </c>
+      <c r="K48" t="s">
+        <v>336</v>
+      </c>
+      <c r="L48" t="s">
+        <v>337</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>324</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>339</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>340</v>
+      </c>
+      <c r="J49" t="s">
+        <v>341</v>
+      </c>
+      <c r="K49" t="s">
+        <v>342</v>
+      </c>
+      <c r="L49" t="s">
+        <v>343</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>344</v>
+      </c>
+      <c r="O49" t="s">
+        <v>91</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>345</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>346</v>
+      </c>
+      <c r="J50" t="s">
+        <v>347</v>
+      </c>
+      <c r="K50" t="s">
+        <v>348</v>
+      </c>
+      <c r="L50" t="s">
+        <v>349</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>344</v>
+      </c>
+      <c r="O50" t="s">
+        <v>66</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>351</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>352</v>
+      </c>
+      <c r="J51" t="s">
+        <v>353</v>
+      </c>
+      <c r="K51" t="s">
+        <v>354</v>
+      </c>
+      <c r="L51" t="s">
+        <v>355</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>356</v>
+      </c>
+      <c r="O51" t="s">
+        <v>157</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>357</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>358</v>
+      </c>
+      <c r="J52" t="s">
+        <v>359</v>
+      </c>
+      <c r="K52" t="s">
+        <v>360</v>
+      </c>
+      <c r="L52" t="s">
+        <v>361</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>362</v>
+      </c>
+      <c r="O52" t="s">
+        <v>66</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>364</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>365</v>
+      </c>
+      <c r="J53" t="s">
+        <v>366</v>
+      </c>
+      <c r="K53" t="s">
+        <v>63</v>
+      </c>
+      <c r="L53" t="s">
+        <v>367</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>362</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>369</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>370</v>
+      </c>
+      <c r="J54" t="s">
+        <v>371</v>
+      </c>
+      <c r="K54" t="s">
+        <v>372</v>
+      </c>
+      <c r="L54" t="s">
+        <v>373</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>362</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>374</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>375</v>
+      </c>
+      <c r="J55" t="s">
+        <v>376</v>
+      </c>
+      <c r="K55" t="s">
+        <v>377</v>
+      </c>
+      <c r="L55" t="s">
+        <v>378</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>379</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>380</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>381</v>
+      </c>
+      <c r="J56" t="s">
+        <v>382</v>
+      </c>
+      <c r="K56" t="s">
+        <v>383</v>
+      </c>
+      <c r="L56" t="s">
+        <v>384</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>385</v>
+      </c>
+      <c r="O56" t="s">
+        <v>91</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>386</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>387</v>
+      </c>
+      <c r="J57" t="s">
+        <v>388</v>
+      </c>
+      <c r="K57" t="s">
+        <v>389</v>
+      </c>
+      <c r="L57" t="s">
+        <v>390</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>391</v>
+      </c>
+      <c r="O57" t="s">
+        <v>91</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>392</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>393</v>
+      </c>
+      <c r="J58" t="s">
+        <v>394</v>
+      </c>
+      <c r="K58" t="s">
+        <v>395</v>
+      </c>
+      <c r="L58" t="s">
+        <v>396</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>397</v>
+      </c>
+      <c r="O58" t="s">
+        <v>66</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>399</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>400</v>
+      </c>
+      <c r="J59" t="s">
+        <v>401</v>
+      </c>
+      <c r="K59" t="s">
+        <v>402</v>
+      </c>
+      <c r="L59" t="s">
+        <v>403</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>404</v>
+      </c>
+      <c r="O59" t="s">
+        <v>66</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>405</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>406</v>
+      </c>
+      <c r="J60" t="s">
+        <v>407</v>
+      </c>
+      <c r="K60" t="s">
+        <v>408</v>
+      </c>
+      <c r="L60" t="s">
+        <v>409</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>410</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>411</v>
+      </c>
+      <c r="J61" t="s">
+        <v>412</v>
+      </c>
+      <c r="K61" t="s">
+        <v>413</v>
+      </c>
+      <c r="L61" t="s">
+        <v>414</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>415</v>
+      </c>
+      <c r="O61" t="s">
+        <v>91</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>416</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>417</v>
+      </c>
+      <c r="J62" t="s">
+        <v>418</v>
+      </c>
+      <c r="K62" t="s">
+        <v>419</v>
+      </c>
+      <c r="L62" t="s">
+        <v>420</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>421</v>
+      </c>
+      <c r="O62" t="s">
+        <v>91</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>423</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>424</v>
+      </c>
+      <c r="J63" t="s">
+        <v>425</v>
+      </c>
+      <c r="K63" t="s">
+        <v>426</v>
+      </c>
+      <c r="L63" t="s">
+        <v>427</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>428</v>
+      </c>
+      <c r="O63" t="s">
+        <v>91</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>429</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>430</v>
+      </c>
+      <c r="J64" t="s">
+        <v>431</v>
+      </c>
+      <c r="K64" t="s">
+        <v>432</v>
+      </c>
+      <c r="L64" t="s">
+        <v>433</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>434</v>
+      </c>
+      <c r="O64" t="s">
+        <v>66</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>435</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>436</v>
+      </c>
+      <c r="J65" t="s">
+        <v>437</v>
+      </c>
+      <c r="K65" t="s">
+        <v>438</v>
+      </c>
+      <c r="L65" t="s">
+        <v>439</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>440</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>441</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>442</v>
+      </c>
+      <c r="J66" t="s">
+        <v>443</v>
+      </c>
+      <c r="K66" t="s">
+        <v>444</v>
+      </c>
+      <c r="L66" t="s">
+        <v>445</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>434</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>447</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>448</v>
+      </c>
+      <c r="J67" t="s">
+        <v>449</v>
+      </c>
+      <c r="K67" t="s">
+        <v>450</v>
+      </c>
+      <c r="L67" t="s">
+        <v>451</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>452</v>
+      </c>
+      <c r="O67" t="s">
+        <v>91</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>2</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>454</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>455</v>
+      </c>
+      <c r="J68" t="s">
+        <v>456</v>
+      </c>
+      <c r="K68" t="s">
+        <v>457</v>
+      </c>
+      <c r="L68" t="s">
+        <v>458</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>459</v>
+      </c>
+      <c r="O68" t="s">
+        <v>91</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>461</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>462</v>
+      </c>
+      <c r="J69" t="s">
+        <v>463</v>
+      </c>
+      <c r="K69" t="s">
+        <v>464</v>
+      </c>
+      <c r="L69" t="s">
+        <v>465</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>466</v>
+      </c>
+      <c r="O69" t="s">
+        <v>177</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>468</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>469</v>
+      </c>
+      <c r="J70" t="s">
+        <v>470</v>
+      </c>
+      <c r="K70" t="s">
+        <v>471</v>
+      </c>
+      <c r="L70" t="s">
+        <v>472</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>473</v>
+      </c>
+      <c r="O70" t="s">
+        <v>66</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>474</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>475</v>
+      </c>
+      <c r="J71" t="s">
+        <v>476</v>
+      </c>
+      <c r="K71" t="s">
+        <v>477</v>
+      </c>
+      <c r="L71" t="s">
+        <v>478</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>479</v>
+      </c>
+      <c r="O71" t="s">
+        <v>66</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>480</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>481</v>
+      </c>
+      <c r="J72" t="s">
+        <v>482</v>
+      </c>
+      <c r="K72" t="s">
+        <v>483</v>
+      </c>
+      <c r="L72" t="s">
+        <v>484</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>479</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>486</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>487</v>
+      </c>
+      <c r="J73" t="s">
+        <v>488</v>
+      </c>
+      <c r="K73" t="s">
+        <v>489</v>
+      </c>
+      <c r="L73" t="s">
+        <v>490</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>491</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>40957</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>493</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>494</v>
+      </c>
+      <c r="J74" t="s">
+        <v>495</v>
+      </c>
+      <c r="K74" t="s">
+        <v>496</v>
+      </c>
+      <c r="L74" t="s">
+        <v>497</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
